--- a/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
+++ b/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="259">
   <si>
     <t>土地坐落</t>
   </si>
@@ -344,6 +344,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台灣塑膠工業股份有限公 司</t>
   </si>
   <si>
@@ -399,6 +408,9 @@
   </si>
   <si>
     <t>1，300，000</t>
+  </si>
+  <si>
+    <t>2013-12-20</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2480,13 +2492,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -2505,13 +2517,22 @@
       <c r="G1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -2528,13 +2549,22 @@
       <c r="G2" s="2">
         <v>208200</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -2551,13 +2581,22 @@
       <c r="G3" s="2">
         <v>159100</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -2574,13 +2613,22 @@
       <c r="G4" s="2">
         <v>4630</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -2597,13 +2645,22 @@
       <c r="G5" s="2">
         <v>51910</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -2620,13 +2677,22 @@
       <c r="G6" s="2">
         <v>182190</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -2643,19 +2709,28 @@
       <c r="G7" s="2">
         <v>2270</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -2666,13 +2741,22 @@
       <c r="G8" s="2">
         <v>273940</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2689,13 +2773,22 @@
       <c r="G9" s="2">
         <v>10700</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -2712,13 +2805,22 @@
       <c r="G10" s="2">
         <v>10350</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -2735,13 +2837,22 @@
       <c r="G11" s="2">
         <v>4450</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -2758,13 +2869,22 @@
       <c r="G12" s="2">
         <v>71820</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -2781,13 +2901,22 @@
       <c r="G13" s="2">
         <v>759960</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -2804,13 +2933,22 @@
       <c r="G14" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
@@ -2827,13 +2965,22 @@
       <c r="G15" s="2">
         <v>15370</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -2850,13 +2997,22 @@
       <c r="G16" s="2">
         <v>1383690</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -2873,13 +3029,22 @@
       <c r="G17" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -2896,13 +3061,22 @@
       <c r="G18" s="2">
         <v>173520</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -2917,15 +3091,24 @@
         <v>88</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>128</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -2941,6 +3124,15 @@
       </c>
       <c r="G20" s="2">
         <v>1170</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1730</v>
       </c>
     </row>
   </sheetData>
@@ -2958,22 +3150,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>64</v>
@@ -2984,13 +3176,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2">
         <v>692.759</v>
@@ -3010,13 +3202,13 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2">
         <v>91827.4</v>
@@ -3036,13 +3228,13 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2">
         <v>30911.9</v>
@@ -3062,13 +3254,13 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E5" s="2">
         <v>6208.4</v>
@@ -3088,13 +3280,13 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2">
         <v>162999.2</v>
@@ -3114,13 +3306,13 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E7" s="2">
         <v>582.46</v>
@@ -3140,13 +3332,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E8" s="2">
         <v>441.95</v>
@@ -3166,13 +3358,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2">
         <v>398.99</v>
@@ -3192,13 +3384,13 @@
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2">
         <v>745.601</v>
@@ -3218,13 +3410,13 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2">
         <v>9614.11</v>
@@ -3244,13 +3436,13 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E12" s="2">
         <v>261.2</v>
@@ -3270,13 +3462,13 @@
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2">
         <v>79365.1</v>
@@ -3296,13 +3488,13 @@
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E14" s="2">
         <v>200000</v>
@@ -3322,13 +3514,13 @@
         <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2">
         <v>200000</v>
@@ -3348,16 +3540,16 @@
         <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F16" s="2">
         <v>10.4566</v>
@@ -3374,13 +3566,13 @@
         <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E17" s="2">
         <v>449014</v>
@@ -3400,13 +3592,13 @@
         <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E18" s="2">
         <v>35511.5</v>
@@ -3426,13 +3618,13 @@
         <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E19" s="2">
         <v>1280.33</v>
@@ -3452,13 +3644,13 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E20" s="2">
         <v>225.861</v>
@@ -3478,13 +3670,13 @@
         <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E21" s="2">
         <v>2859.477</v>
@@ -3504,13 +3696,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E22" s="2">
         <v>714.792</v>
@@ -3530,13 +3722,13 @@
         <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E23" s="2">
         <v>1631.321</v>
@@ -3556,13 +3748,13 @@
         <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E24" s="2">
         <v>628.532</v>
@@ -3571,7 +3763,7 @@
         <v>43.3092</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H24" s="2">
         <v>803570.36</v>
@@ -3582,13 +3774,13 @@
         <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E25" s="2">
         <v>100</v>
@@ -3608,13 +3800,13 @@
         <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E26" s="2">
         <v>43.3092</v>
@@ -3634,13 +3826,13 @@
         <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E27" s="2">
         <v>150000</v>
@@ -3660,13 +3852,13 @@
         <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E28" s="2">
         <v>830929.7</v>
@@ -3686,13 +3878,13 @@
         <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E29" s="2">
         <v>144.921</v>
@@ -3712,13 +3904,13 @@
         <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E30" s="2">
         <v>730.658</v>
@@ -3738,13 +3930,13 @@
         <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E31" s="2">
         <v>7602.093</v>
@@ -3764,13 +3956,13 @@
         <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E32" s="2">
         <v>65.55</v>
@@ -3790,13 +3982,13 @@
         <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E33" s="2">
         <v>878.57</v>
@@ -3816,13 +4008,13 @@
         <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E34" s="2">
         <v>150000</v>
@@ -3842,13 +4034,13 @@
         <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E35" s="2">
         <v>360853.9</v>
@@ -3878,16 +4070,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3895,16 +4087,16 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3912,16 +4104,16 @@
         <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3929,16 +4121,16 @@
         <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3946,16 +4138,16 @@
         <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3963,16 +4155,16 @@
         <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3980,16 +4172,16 @@
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3997,16 +4189,16 @@
         <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4014,16 +4206,16 @@
         <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4031,16 +4223,16 @@
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4048,16 +4240,16 @@
         <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4065,16 +4257,16 @@
         <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4082,16 +4274,16 @@
         <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4099,16 +4291,16 @@
         <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4116,16 +4308,16 @@
         <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4133,16 +4325,16 @@
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4150,16 +4342,16 @@
         <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4167,16 +4359,16 @@
         <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4184,16 +4376,16 @@
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4201,10 +4393,10 @@
         <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -4218,10 +4410,10 @@
         <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>22</v>
@@ -4235,10 +4427,10 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -4252,16 +4444,16 @@
         <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4269,16 +4461,16 @@
         <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4286,10 +4478,10 @@
         <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>23</v>
@@ -4301,10 +4493,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>23</v>
@@ -4316,10 +4508,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>23</v>
@@ -4331,16 +4523,16 @@
         <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4348,16 +4540,16 @@
         <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4365,16 +4557,16 @@
         <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4382,16 +4574,16 @@
         <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4399,16 +4591,16 @@
         <v>213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4416,16 +4608,16 @@
         <v>214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4433,16 +4625,16 @@
         <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4450,16 +4642,16 @@
         <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4477,22 +4669,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4503,19 +4695,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4526,19 +4718,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
+++ b/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="261">
   <si>
     <t>土地坐落</t>
   </si>
@@ -344,6 +344,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -353,10 +356,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>台灣塑膠工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>南亞塑膠工業股份有限公 司</t>
+    <t>台灣塑膠工業股份有限公司</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業股份有限公司</t>
   </si>
   <si>
     <t>遠東新世紀股份有限公司</t>
@@ -371,13 +374,13 @@
     <t>國泰建設股份有限公司</t>
   </si>
   <si>
-    <t>永豐金融控股股份有限公 司</t>
+    <t>永豐金融控股股份有限公司</t>
   </si>
   <si>
     <t>原相科技股份有限公司</t>
   </si>
   <si>
-    <t>台灣類比科技股份有限公 司</t>
+    <t>台灣類比科技股份有限公司</t>
   </si>
   <si>
     <t>和旺建設股份有限公司</t>
@@ -386,10 +389,10 @@
     <t>全國加油站股份有限公司</t>
   </si>
   <si>
-    <t>台灣積體電路製造股份有 限公司</t>
-  </si>
-  <si>
-    <t>鴻海精密工業股份有限公 司</t>
+    <t>台灣積體電路製造股份有限公司</t>
+  </si>
+  <si>
+    <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
     <t>中華航空股份有限公司</t>
@@ -398,16 +401,19 @@
     <t>國鼎生物科技股份有限公</t>
   </si>
   <si>
-    <t>台灣工銀證券股份有限公 司</t>
+    <t>台灣工銀證券股份有限公司</t>
   </si>
   <si>
     <t>富達證券股份有限公司</t>
   </si>
   <si>
-    <t>27，394</t>
-  </si>
-  <si>
-    <t>1，300，000</t>
+    <t>27394</t>
+  </si>
+  <si>
+    <t>1300000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-20</t>
@@ -2492,13 +2498,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -2526,13 +2532,16 @@
       <c r="J1" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -2550,21 +2559,24 @@
         <v>208200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2">
+        <v>131</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -2582,21 +2594,24 @@
         <v>159100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2">
+        <v>131</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -2614,21 +2629,24 @@
         <v>4630</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2">
+        <v>131</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -2646,21 +2664,24 @@
         <v>51910</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2">
+        <v>131</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -2678,21 +2699,24 @@
         <v>182190</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="2">
+        <v>131</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -2710,27 +2734,30 @@
         <v>2270</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="2">
+        <v>131</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -2742,21 +2769,24 @@
         <v>273940</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="2">
+        <v>131</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2774,21 +2804,24 @@
         <v>10700</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="2">
+        <v>131</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -2806,21 +2839,24 @@
         <v>10350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="2">
+        <v>131</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -2838,21 +2874,24 @@
         <v>4450</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="2">
+        <v>131</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -2870,21 +2909,24 @@
         <v>71820</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="2">
+        <v>131</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -2902,21 +2944,24 @@
         <v>759960</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="2">
+        <v>131</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -2934,21 +2979,24 @@
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="2">
+        <v>131</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
@@ -2966,21 +3014,24 @@
         <v>15370</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="2">
+        <v>131</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -2998,21 +3049,24 @@
         <v>1383690</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="2">
+        <v>131</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -3030,21 +3084,24 @@
         <v>250000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="2">
+        <v>131</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -3062,21 +3119,24 @@
         <v>173520</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="2">
+        <v>131</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -3091,24 +3151,27 @@
         <v>88</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="2">
+        <v>131</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -3126,12 +3189,15 @@
         <v>1170</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="2">
+        <v>131</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2">
         <v>1730</v>
       </c>
     </row>
@@ -3150,22 +3216,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>64</v>
@@ -3176,13 +3242,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2">
         <v>692.759</v>
@@ -3202,13 +3268,13 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2">
         <v>91827.4</v>
@@ -3228,13 +3294,13 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E4" s="2">
         <v>30911.9</v>
@@ -3254,13 +3320,13 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2">
         <v>6208.4</v>
@@ -3280,13 +3346,13 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E6" s="2">
         <v>162999.2</v>
@@ -3306,13 +3372,13 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2">
         <v>582.46</v>
@@ -3332,13 +3398,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E8" s="2">
         <v>441.95</v>
@@ -3358,13 +3424,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E9" s="2">
         <v>398.99</v>
@@ -3384,13 +3450,13 @@
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E10" s="2">
         <v>745.601</v>
@@ -3410,13 +3476,13 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E11" s="2">
         <v>9614.11</v>
@@ -3436,13 +3502,13 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E12" s="2">
         <v>261.2</v>
@@ -3462,13 +3528,13 @@
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2">
         <v>79365.1</v>
@@ -3488,13 +3554,13 @@
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2">
         <v>200000</v>
@@ -3514,13 +3580,13 @@
         <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2">
         <v>200000</v>
@@ -3540,16 +3606,16 @@
         <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F16" s="2">
         <v>10.4566</v>
@@ -3566,13 +3632,13 @@
         <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E17" s="2">
         <v>449014</v>
@@ -3592,13 +3658,13 @@
         <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E18" s="2">
         <v>35511.5</v>
@@ -3618,13 +3684,13 @@
         <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E19" s="2">
         <v>1280.33</v>
@@ -3644,13 +3710,13 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E20" s="2">
         <v>225.861</v>
@@ -3670,13 +3736,13 @@
         <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E21" s="2">
         <v>2859.477</v>
@@ -3696,13 +3762,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E22" s="2">
         <v>714.792</v>
@@ -3722,13 +3788,13 @@
         <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E23" s="2">
         <v>1631.321</v>
@@ -3748,13 +3814,13 @@
         <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E24" s="2">
         <v>628.532</v>
@@ -3763,7 +3829,7 @@
         <v>43.3092</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H24" s="2">
         <v>803570.36</v>
@@ -3774,13 +3840,13 @@
         <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E25" s="2">
         <v>100</v>
@@ -3800,13 +3866,13 @@
         <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E26" s="2">
         <v>43.3092</v>
@@ -3826,13 +3892,13 @@
         <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E27" s="2">
         <v>150000</v>
@@ -3852,13 +3918,13 @@
         <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E28" s="2">
         <v>830929.7</v>
@@ -3878,13 +3944,13 @@
         <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E29" s="2">
         <v>144.921</v>
@@ -3904,13 +3970,13 @@
         <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E30" s="2">
         <v>730.658</v>
@@ -3930,13 +3996,13 @@
         <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E31" s="2">
         <v>7602.093</v>
@@ -3956,13 +4022,13 @@
         <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E32" s="2">
         <v>65.55</v>
@@ -3982,13 +4048,13 @@
         <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E33" s="2">
         <v>878.57</v>
@@ -4008,13 +4074,13 @@
         <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E34" s="2">
         <v>150000</v>
@@ -4034,13 +4100,13 @@
         <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E35" s="2">
         <v>360853.9</v>
@@ -4070,16 +4136,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4087,16 +4153,16 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4104,16 +4170,16 @@
         <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4121,16 +4187,16 @@
         <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4138,16 +4204,16 @@
         <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4155,16 +4221,16 @@
         <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4172,16 +4238,16 @@
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4189,16 +4255,16 @@
         <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4206,16 +4272,16 @@
         <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4223,16 +4289,16 @@
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4240,16 +4306,16 @@
         <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4257,16 +4323,16 @@
         <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4274,16 +4340,16 @@
         <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4291,16 +4357,16 @@
         <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4308,16 +4374,16 @@
         <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4325,16 +4391,16 @@
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4342,16 +4408,16 @@
         <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4359,16 +4425,16 @@
         <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4376,16 +4442,16 @@
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4393,10 +4459,10 @@
         <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -4410,10 +4476,10 @@
         <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>22</v>
@@ -4427,10 +4493,10 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -4444,16 +4510,16 @@
         <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4461,16 +4527,16 @@
         <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4478,10 +4544,10 @@
         <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>23</v>
@@ -4493,10 +4559,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>23</v>
@@ -4508,10 +4574,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>23</v>
@@ -4523,16 +4589,16 @@
         <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4540,16 +4606,16 @@
         <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4557,16 +4623,16 @@
         <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4574,16 +4640,16 @@
         <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4591,16 +4657,16 @@
         <v>213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4608,16 +4674,16 @@
         <v>214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4625,16 +4691,16 @@
         <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4642,16 +4708,16 @@
         <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4669,22 +4735,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4695,19 +4761,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4718,19 +4784,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
+++ b/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="266">
   <si>
     <t>土地坐落</t>
   </si>
@@ -347,6 +347,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -356,6 +359,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台灣塑膠工業股份有限公司</t>
   </si>
   <si>
@@ -416,7 +425,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-20</t>
+  </si>
+  <si>
+    <t>tmp84bd1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2498,13 +2513,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -2535,13 +2550,22 @@
       <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -2559,24 +2583,33 @@
         <v>208200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2">
+        <v>135</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -2594,24 +2627,33 @@
         <v>159100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2">
+        <v>135</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -2629,24 +2671,33 @@
         <v>4630</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2">
+        <v>135</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -2664,24 +2715,33 @@
         <v>51910</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2">
+        <v>135</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -2699,24 +2759,33 @@
         <v>182190</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2">
+        <v>135</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -2734,30 +2803,39 @@
         <v>2270</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2">
+        <v>135</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -2769,24 +2847,33 @@
         <v>273940</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2">
+        <v>135</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2804,24 +2891,33 @@
         <v>10700</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2">
+        <v>135</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -2839,24 +2935,33 @@
         <v>10350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="2">
+        <v>135</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -2874,24 +2979,33 @@
         <v>4450</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="2">
+        <v>135</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -2909,24 +3023,33 @@
         <v>71820</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="2">
+        <v>135</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N12" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -2944,24 +3067,33 @@
         <v>759960</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2">
+        <v>135</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -2979,24 +3111,33 @@
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2">
+        <v>135</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N14" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
@@ -3014,24 +3155,33 @@
         <v>15370</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="2">
+        <v>135</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -3049,24 +3199,33 @@
         <v>1383690</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="2">
+        <v>135</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N16" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -3084,24 +3243,33 @@
         <v>250000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="2">
+        <v>135</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N17" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -3119,24 +3287,33 @@
         <v>173520</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="2">
+        <v>135</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -3151,27 +3328,36 @@
         <v>88</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="2">
+        <v>135</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N19" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -3189,16 +3375,25 @@
         <v>1170</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="2">
+        <v>135</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="2">
         <v>1730</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3216,22 +3411,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>64</v>
@@ -3242,13 +3437,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2">
         <v>692.759</v>
@@ -3268,13 +3463,13 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2">
         <v>91827.4</v>
@@ -3294,13 +3489,13 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2">
         <v>30911.9</v>
@@ -3320,13 +3515,13 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E5" s="2">
         <v>6208.4</v>
@@ -3346,13 +3541,13 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E6" s="2">
         <v>162999.2</v>
@@ -3372,13 +3567,13 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2">
         <v>582.46</v>
@@ -3398,13 +3593,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E8" s="2">
         <v>441.95</v>
@@ -3424,13 +3619,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E9" s="2">
         <v>398.99</v>
@@ -3450,13 +3645,13 @@
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E10" s="2">
         <v>745.601</v>
@@ -3476,13 +3671,13 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E11" s="2">
         <v>9614.11</v>
@@ -3502,13 +3697,13 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E12" s="2">
         <v>261.2</v>
@@ -3528,13 +3723,13 @@
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E13" s="2">
         <v>79365.1</v>
@@ -3554,13 +3749,13 @@
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2">
         <v>200000</v>
@@ -3580,13 +3775,13 @@
         <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2">
         <v>200000</v>
@@ -3606,16 +3801,16 @@
         <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F16" s="2">
         <v>10.4566</v>
@@ -3632,13 +3827,13 @@
         <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2">
         <v>449014</v>
@@ -3658,13 +3853,13 @@
         <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E18" s="2">
         <v>35511.5</v>
@@ -3684,13 +3879,13 @@
         <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E19" s="2">
         <v>1280.33</v>
@@ -3710,13 +3905,13 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E20" s="2">
         <v>225.861</v>
@@ -3736,13 +3931,13 @@
         <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E21" s="2">
         <v>2859.477</v>
@@ -3762,13 +3957,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E22" s="2">
         <v>714.792</v>
@@ -3788,13 +3983,13 @@
         <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E23" s="2">
         <v>1631.321</v>
@@ -3814,13 +4009,13 @@
         <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E24" s="2">
         <v>628.532</v>
@@ -3829,7 +4024,7 @@
         <v>43.3092</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H24" s="2">
         <v>803570.36</v>
@@ -3840,13 +4035,13 @@
         <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E25" s="2">
         <v>100</v>
@@ -3866,13 +4061,13 @@
         <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2">
         <v>43.3092</v>
@@ -3892,13 +4087,13 @@
         <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E27" s="2">
         <v>150000</v>
@@ -3918,13 +4113,13 @@
         <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E28" s="2">
         <v>830929.7</v>
@@ -3944,13 +4139,13 @@
         <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E29" s="2">
         <v>144.921</v>
@@ -3970,13 +4165,13 @@
         <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E30" s="2">
         <v>730.658</v>
@@ -3996,13 +4191,13 @@
         <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E31" s="2">
         <v>7602.093</v>
@@ -4022,13 +4217,13 @@
         <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E32" s="2">
         <v>65.55</v>
@@ -4048,13 +4243,13 @@
         <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E33" s="2">
         <v>878.57</v>
@@ -4074,13 +4269,13 @@
         <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E34" s="2">
         <v>150000</v>
@@ -4100,13 +4295,13 @@
         <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E35" s="2">
         <v>360853.9</v>
@@ -4136,16 +4331,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4153,16 +4348,16 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4170,16 +4365,16 @@
         <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4187,16 +4382,16 @@
         <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4204,16 +4399,16 @@
         <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4221,16 +4416,16 @@
         <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4238,16 +4433,16 @@
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4255,16 +4450,16 @@
         <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4272,16 +4467,16 @@
         <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4289,16 +4484,16 @@
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4306,16 +4501,16 @@
         <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4323,16 +4518,16 @@
         <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4340,16 +4535,16 @@
         <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4357,16 +4552,16 @@
         <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4374,16 +4569,16 @@
         <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4391,16 +4586,16 @@
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4408,16 +4603,16 @@
         <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4425,16 +4620,16 @@
         <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4442,16 +4637,16 @@
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4459,10 +4654,10 @@
         <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -4476,10 +4671,10 @@
         <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>22</v>
@@ -4493,10 +4688,10 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -4510,16 +4705,16 @@
         <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4527,16 +4722,16 @@
         <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4544,10 +4739,10 @@
         <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>23</v>
@@ -4559,10 +4754,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>23</v>
@@ -4574,10 +4769,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>23</v>
@@ -4589,16 +4784,16 @@
         <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4606,16 +4801,16 @@
         <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4623,16 +4818,16 @@
         <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4640,16 +4835,16 @@
         <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4657,16 +4852,16 @@
         <v>213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4674,16 +4869,16 @@
         <v>214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4691,16 +4886,16 @@
         <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4708,16 +4903,16 @@
         <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4735,22 +4930,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4761,19 +4956,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4784,19 +4979,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
+++ b/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
@@ -21,9 +21,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="266">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="267">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段01430000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段01560000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區三玉段五小段00020000地號</t>
+  </si>
+  <si>
+    <t>南投縣南投市內新段02740000地號</t>
+  </si>
+  <si>
+    <t>南投縣中寮鄉先驅段14670000地號</t>
+  </si>
+  <si>
+    <t>南投縣中寮鄉先驅段14700001地號</t>
+  </si>
+  <si>
+    <t>2572</t>
+  </si>
+  <si>
+    <t>9160</t>
+  </si>
+  <si>
+    <t>10000分之312</t>
+  </si>
+  <si>
+    <t>10000分之308</t>
+  </si>
+  <si>
+    <t>20000分之484</t>
+  </si>
+  <si>
+    <t>10000分之112</t>
+  </si>
+  <si>
+    <t>10000分之64</t>
+  </si>
+  <si>
+    <t>40分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>黃瑞明</t>
+  </si>
+  <si>
+    <t>尤美女</t>
+  </si>
+  <si>
+    <t>91年07月04日</t>
+  </si>
+  <si>
+    <t>90年05月18日</t>
+  </si>
+  <si>
+    <t>76年12月19日</t>
+  </si>
+  <si>
+    <t>81年11月20日</t>
+  </si>
+  <si>
+    <t>79年04月28日</t>
+  </si>
+  <si>
+    <t>101年03月06曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>3940727</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-20</t>
+  </si>
+  <si>
+    <t>tmp84bd1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,145 +179,58 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市士林區天母段一小段 0143-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 0156-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區三玉段五小段 0002-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣南投市內新段0274-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣中寮鄉先驅段1467-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣中寮鄉先驅段1470-0001 地號</t>
-  </si>
-  <si>
-    <t>.2,572</t>
-  </si>
-  <si>
-    <t>9，160</t>
-  </si>
-  <si>
-    <t>10000分之 312</t>
-  </si>
-  <si>
-    <t>10000分之 308</t>
-  </si>
-  <si>
-    <t>20000分之 484</t>
-  </si>
-  <si>
-    <t>10000分之 112</t>
-  </si>
-  <si>
-    <t>10000分之 64</t>
-  </si>
-  <si>
-    <t>40分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>黃瑞明</t>
-  </si>
-  <si>
-    <t>尤美女</t>
-  </si>
-  <si>
-    <t>91年07月 04日</t>
-  </si>
-  <si>
-    <t>90年05月 18日</t>
-  </si>
-  <si>
-    <t>76年12月 19日</t>
-  </si>
-  <si>
-    <t>81年11月 20日</t>
-  </si>
-  <si>
-    <t>79年04月 28日</t>
-  </si>
-  <si>
-    <t>101 年 03 月06曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>3，940，727</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 11797-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 11806-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 11820-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 11953-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 11971-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 11972-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 11973-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區三玉段五小段 51337-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區三玉段五小段 51386-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區三玉段五小段 51322-000 建號</t>
+    <t>臺北市士林區天母段一小段11797000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11806000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11820000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11953000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11971000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11972000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11973000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區三玉段五小段51337000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區三玉段五小段51386000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區三玉段五小段51322000建號</t>
   </si>
   <si>
     <t>23分之2</t>
   </si>
   <si>
-    <t>10000分之 482</t>
-  </si>
-  <si>
-    <t>10000分之 624</t>
-  </si>
-  <si>
-    <t>10000分之 543</t>
+    <t>10000分之482</t>
+  </si>
+  <si>
+    <t>10000分之624</t>
+  </si>
+  <si>
+    <t>10000分之543</t>
   </si>
   <si>
     <t>44分之1</t>
   </si>
   <si>
-    <t>尤美女 黃瑞明</t>
-  </si>
-  <si>
-    <t>90年05月 30日</t>
-  </si>
-  <si>
-    <t>(超過五年，停 車位）</t>
-  </si>
-  <si>
-    <t>(超過五年,停 車位）</t>
+    <t>尤美女黃瑞明</t>
+  </si>
+  <si>
+    <t>90年05月30日</t>
+  </si>
+  <si>
+    <t>(超過五年停車位）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -194,13 +242,13 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>JAGUAR XF 2008-03</t>
-  </si>
-  <si>
-    <t>102 年 03 月07曰</t>
-  </si>
-  <si>
-    <t>所有權移 轉</t>
+    <t>JAGUARXF200803</t>
+  </si>
+  <si>
+    <t>102年03月07曰</t>
+  </si>
+  <si>
+    <t>所有權移轉</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -218,7 +266,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台北市第九信用合作社士 林分社</t>
+    <t>台北市第九信用合作社士林分社</t>
   </si>
   <si>
     <t>士林蘭雅郵局(第83支局）</t>
@@ -227,16 +275,16 @@
     <t>臺灣銀行士林分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行天母分 行</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀行南京 東路分行</t>
+    <t>台新國際商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行南京東路分行</t>
   </si>
   <si>
     <t>第一商業銀行民生分行</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行慶城分 行</t>
+    <t>臺灣新光商業銀行慶城分行</t>
   </si>
   <si>
     <t>香港EFG銀行</t>
@@ -245,19 +293,19 @@
     <t>德國郵局</t>
   </si>
   <si>
-    <t>合作金庫商業銀行民生分 行</t>
+    <t>合作金庫商業銀行民生分行</t>
   </si>
   <si>
     <t>玉山商業銀行天母分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行瑞光分 fT</t>
+    <t>中國信託商業銀行瑞光分fT</t>
   </si>
   <si>
     <t>安泰商業銀行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司台 北體育場郵局(第81支局)</t>
+    <t>中華郵政股份有限公司台北體育場郵局(第81支局)</t>
   </si>
   <si>
     <t>第一商業銀行民生分行‘</t>
@@ -278,9 +326,6 @@
     <t>活期存款</t>
   </si>
   <si>
-    <t>活期存款-</t>
-  </si>
-  <si>
     <t>外幣存款</t>
   </si>
   <si>
@@ -314,22 +359,16 @@
     <t>南非幣</t>
   </si>
   <si>
-    <t>500，676.07</t>
+    <t>500676.07</t>
   </si>
   <si>
     <t>.0.23</t>
   </si>
   <si>
-    <t>'' 280,570</t>
-  </si>
-  <si>
-    <t>4，228，084</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>280570</t>
+  </si>
+  <si>
+    <t>4228084</t>
   </si>
   <si>
     <t>quantity</t>
@@ -344,27 +383,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台灣塑膠工業股份有限公司</t>
   </si>
   <si>
@@ -425,15 +443,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-20</t>
-  </si>
-  <si>
-    <t>tmp84bd1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -449,52 +458,52 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>摩根多重收益美 元月配</t>
-  </si>
-  <si>
-    <t>群益華夏盛世基 金</t>
-  </si>
-  <si>
-    <t>群益中小型股基 金</t>
-  </si>
-  <si>
-    <t>群益安穩貨幣市 場基金</t>
-  </si>
-  <si>
-    <t>群益多重資產組 合基金</t>
+    <t>摩根多重收益美元月配</t>
+  </si>
+  <si>
+    <t>群益華夏盛世基金</t>
+  </si>
+  <si>
+    <t>群益中小型股基金</t>
+  </si>
+  <si>
+    <t>群益安穩貨幣市場基金</t>
+  </si>
+  <si>
+    <t>群益多重資產組合基金</t>
   </si>
   <si>
     <t>富達印尼基金</t>
   </si>
   <si>
-    <t>富達中國聚焦基 金</t>
+    <t>富達中國聚焦基金</t>
   </si>
   <si>
     <t>摩根東協基金</t>
   </si>
   <si>
-    <t>摩根多重收益美 元</t>
-  </si>
-  <si>
-    <t>摩根環高收債澳 幣</t>
+    <t>摩根多重收益美元</t>
+  </si>
+  <si>
+    <t>摩根環高收債澳幣</t>
   </si>
   <si>
     <t>貝萊德日特時機</t>
   </si>
   <si>
-    <t>德盛安聯中國東 協</t>
+    <t>德盛安聯中國東協</t>
   </si>
   <si>
     <t>德盛四季雙收入</t>
   </si>
   <si>
-    <t>匯豐中國A股匯 聚</t>
-  </si>
-  <si>
-    <t>富蘭克林華美全 高</t>
-  </si>
-  <si>
-    <t>群益安穩貨幣市 場</t>
+    <t>匯豐中國A股匯聚</t>
+  </si>
+  <si>
+    <t>富蘭克林華美全高</t>
+  </si>
+  <si>
+    <t>群益安穩貨幣市場</t>
   </si>
   <si>
     <t>價值卓越</t>
@@ -515,10 +524,10 @@
     <t>霸菱東歐基</t>
   </si>
   <si>
-    <t>群益全球關鍵生 技基金</t>
-  </si>
-  <si>
-    <t>群益鑫盛一號基 金</t>
+    <t>群益全球關鍵生技基金</t>
+  </si>
+  <si>
+    <t>群益鑫盛一號基金</t>
   </si>
   <si>
     <t>摩根印度基金</t>
@@ -536,46 +545,40 @@
     <t>施羅歐小</t>
   </si>
   <si>
-    <t>群益美國新創亮 點基金</t>
+    <t>群益美國新創亮點基金</t>
   </si>
   <si>
     <t>多利策略組合</t>
   </si>
   <si>
-    <t>黃瑞明’</t>
-  </si>
-  <si>
     <t>黃瑞明.</t>
   </si>
   <si>
-    <t>匯豐銀行南京 東路分行</t>
-  </si>
-  <si>
-    <t>群益證券投資 股份有限公司</t>
+    <t>匯豐銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>群益證券投資股份有限公司</t>
   </si>
   <si>
     <t>群益證券</t>
   </si>
   <si>
-    <t>第一銀行民生 分行</t>
+    <t>第一銀行民生分行</t>
   </si>
   <si>
     <t>第一銀行民生</t>
   </si>
   <si>
-    <t>新光銀行慶城 分行</t>
-  </si>
-  <si>
-    <t>8160016安泰商 業銀行長安東 路分行</t>
+    <t>新光銀行慶城分行</t>
+  </si>
+  <si>
+    <t>8160016安泰商業銀行長安東路分行</t>
   </si>
   <si>
     <t>8160016安泰商</t>
   </si>
   <si>
-    <t>.286,384</t>
-  </si>
-  <si>
-    <t>美金 _</t>
+    <t>.286384</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -623,7 +626,7 @@
     <t>南山康寧終身壽險</t>
   </si>
   <si>
-    <t>南山人壽伴我一生躉繳變額 壽險</t>
+    <t>南山人壽伴我一生躉繳變額壽險</t>
   </si>
   <si>
     <t>南山全新增額養老壽險</t>
@@ -635,13 +638,13 @@
     <t>南山美滿還本終身保險</t>
   </si>
   <si>
-    <t>南山人壽新康祥終身保險一B 型</t>
+    <t>南山人壽新康祥終身保險一B型</t>
   </si>
   <si>
     <t>南山全新增額養老險壽</t>
   </si>
   <si>
-    <t>全球人壽樂活外幣變額年金 保險</t>
+    <t>全球人壽樂活外幣變額年金保險</t>
   </si>
   <si>
     <t>超優勢變額萬能壽險（丙型）</t>
@@ -650,7 +653,7 @@
     <t>超優勢變額年金保險</t>
   </si>
   <si>
-    <t>法國巴黎人壽富足人生變額 年金保險</t>
+    <t>法國巴黎人壽富足人生變額年金保險</t>
   </si>
   <si>
     <t>年金保險:心得意利變型年金</t>
@@ -662,7 +665,7 @@
     <t>白金人壽保險:再接債利</t>
   </si>
   <si>
-    <t>郵政簡易人壽六年期吉利保 險</t>
+    <t>郵政簡易人壽六年期吉利保險</t>
   </si>
   <si>
     <t>致勝100(年金）</t>
@@ -671,13 +674,13 @@
     <t>好康再現專案</t>
   </si>
   <si>
-    <t>匯豐人壽新好醫日額醫療養 老保險</t>
-  </si>
-  <si>
-    <t>匯豐人壽新大安心傷害保本 保險</t>
-  </si>
-  <si>
-    <t>南山人壽新康祥終身壽險-B 型</t>
+    <t>匯豐人壽新好醫日額醫療養老保險</t>
+  </si>
+  <si>
+    <t>匯豐人壽新大安心傷害保本保險</t>
+  </si>
+  <si>
+    <t>南山人壽新康祥終身壽險B型</t>
   </si>
   <si>
     <t>美利成增</t>
@@ -698,7 +701,7 @@
     <t>南山康樂限期繳費終身壽險</t>
   </si>
   <si>
-    <t>南山康福二十年期繳費終身 壽險</t>
+    <t>南山康福二十年期繳費終身壽險</t>
   </si>
   <si>
     <t>N207106590</t>
@@ -746,13 +749,13 @@
     <t>ULD1195265</t>
   </si>
   <si>
-    <t>保單生效日：100/09/01 NO.Ml01707349-01</t>
-  </si>
-  <si>
-    <t>保單生效日：100/05/17 NO.628181</t>
-  </si>
-  <si>
-    <t>保單生效曰：100/05/18 NO.629006</t>
+    <t>保單生效日：1000901NO.Ml0170734901</t>
+  </si>
+  <si>
+    <t>保單生效日：1000517NO.628181</t>
+  </si>
+  <si>
+    <t>保單生效曰：1000518NO.629006</t>
   </si>
   <si>
     <t>HL60009174</t>
@@ -761,19 +764,19 @@
     <t>HL60030108</t>
   </si>
   <si>
-    <t>保單生效日：101/05/17 NO.M101707349-02</t>
-  </si>
-  <si>
-    <t>保單生效日：102/12/11 NO.982283</t>
-  </si>
-  <si>
-    <t>保單生效日：102/12/11 NO.1538016</t>
-  </si>
-  <si>
-    <t>保單生效日：102/12/11 NO.1002625652-00</t>
-  </si>
-  <si>
-    <t>保單生效日：專案代號101548 AUD38915</t>
+    <t>保單生效日：1010517NO.M10170734902</t>
+  </si>
+  <si>
+    <t>保單生效日：1021211NO.982283</t>
+  </si>
+  <si>
+    <t>保單生效日：1021211NO.1538016</t>
+  </si>
+  <si>
+    <t>保單生效日：1021211NO.100262565200</t>
+  </si>
+  <si>
+    <t>保單生效日：專案代號101548AUD38915</t>
   </si>
   <si>
     <t>N447560776</t>
@@ -803,7 +806,7 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>先驅媒體社會企業股份有限 公司</t>
+    <t>先驅媒體社會企業股份有限公司</t>
   </si>
   <si>
     <t>能得科技股份有限公司</t>
@@ -812,13 +815,13 @@
     <t>臺北市仁愛路2段98號7樓</t>
   </si>
   <si>
-    <t>臺北市敦化南路1段132號 5樓</t>
-  </si>
-  <si>
-    <t>98年07月 02日</t>
-  </si>
-  <si>
-    <t>95年01月 01日</t>
+    <t>臺北市敦化南路1段132號5樓</t>
+  </si>
+  <si>
+    <t>98年07月02日</t>
+  </si>
+  <si>
+    <t>95年01月01日</t>
   </si>
 </sst>
 </file>
@@ -1177,13 +1180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,239 +1208,449 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1470</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1470</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>1185.7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>1185.7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>2572</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>1013.46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>1300</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2">
         <v>559273</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2">
         <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1455,25 +1668,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1481,25 +1694,25 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>114.27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1507,25 +1720,25 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>111.94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1533,25 +1746,25 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2">
         <v>1188.59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1559,25 +1772,25 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2">
         <v>139.76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1585,25 +1798,25 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>1421.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1611,25 +1824,25 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2">
         <v>1802.31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1637,25 +1850,25 @@
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2">
         <v>75.98</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1663,25 +1876,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2">
         <v>157.38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1689,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2">
         <v>1731.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1715,25 +1928,25 @@
         <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2">
         <v>111.48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1751,22 +1964,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1774,19 +1987,19 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>2967</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
         <v>300000</v>
@@ -1807,22 +2020,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1830,16 +2043,16 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1851,20 +2064,20 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1872,16 +2085,16 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1893,16 +2106,16 @@
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1914,16 +2127,16 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1935,16 +2148,16 @@
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1956,16 +2169,16 @@
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1977,16 +2190,16 @@
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>14255.57</v>
@@ -2000,16 +2213,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>5.14</v>
@@ -2023,19 +2236,19 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G11" s="2">
         <v>14975221.25</v>
@@ -2046,16 +2259,16 @@
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2">
         <v>4434.77</v>
@@ -2069,16 +2282,16 @@
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2090,16 +2303,16 @@
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2111,16 +2324,16 @@
         <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2">
         <v>2568.36</v>
@@ -2134,16 +2347,16 @@
         <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2">
         <v>105469.19</v>
@@ -2157,16 +2370,16 @@
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2">
         <v>2033.56</v>
@@ -2180,16 +2393,16 @@
         <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -2201,16 +2414,16 @@
         <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -2222,16 +2435,16 @@
         <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2243,16 +2456,16 @@
         <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2264,16 +2477,16 @@
         <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F22" s="2">
         <v>461.34</v>
@@ -2287,16 +2500,16 @@
         <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2308,16 +2521,16 @@
         <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F24" s="2">
         <v>250000</v>
@@ -2331,19 +2544,19 @@
         <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2">
         <v>6.44</v>
@@ -2354,20 +2567,20 @@
         <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2375,16 +2588,16 @@
         <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2">
         <v>1.41</v>
@@ -2398,16 +2611,16 @@
         <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F28" s="2">
         <v>162093.96</v>
@@ -2421,16 +2634,16 @@
         <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F29" s="2">
         <v>100000.5</v>
@@ -2444,16 +2657,16 @@
         <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2">
         <v>240000</v>
@@ -2467,16 +2680,16 @@
         <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2">
         <v>790.07</v>
@@ -2490,16 +2703,16 @@
         <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
@@ -2521,43 +2734,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2565,10 +2778,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>20820</v>
@@ -2577,28 +2790,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2">
         <v>208200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>1730</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
         <v>100</v>
@@ -2609,10 +2822,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>15910</v>
@@ -2621,28 +2834,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2">
         <v>159100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>1730</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2">
         <v>101</v>
@@ -2653,10 +2866,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>463</v>
@@ -2665,28 +2878,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2">
         <v>4630</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <v>1730</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2">
         <v>102</v>
@@ -2697,10 +2910,10 @@
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>5191</v>
@@ -2709,28 +2922,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2">
         <v>51910</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>1730</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2">
         <v>103</v>
@@ -2741,10 +2954,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>18219</v>
@@ -2753,28 +2966,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G6" s="2">
         <v>182190</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2">
         <v>1730</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2">
         <v>104</v>
@@ -2785,10 +2998,10 @@
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>227</v>
@@ -2797,28 +3010,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G7" s="2">
         <v>2270</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2">
         <v>1730</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N7" s="2">
         <v>105</v>
@@ -2829,40 +3042,40 @@
         <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2">
         <v>273940</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2">
         <v>1730</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2">
         <v>106</v>
@@ -2873,10 +3086,10 @@
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>1070</v>
@@ -2885,28 +3098,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G9" s="2">
         <v>10700</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2">
         <v>1730</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N9" s="2">
         <v>107</v>
@@ -2917,10 +3130,10 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>1035</v>
@@ -2929,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G10" s="2">
         <v>10350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2">
         <v>1730</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N10" s="2">
         <v>108</v>
@@ -2961,10 +3174,10 @@
         <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>445</v>
@@ -2973,28 +3186,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2">
         <v>4450</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2">
         <v>1730</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N11" s="2">
         <v>109</v>
@@ -3005,10 +3218,10 @@
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>7182</v>
@@ -3017,28 +3230,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2">
         <v>71820</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2">
         <v>1730</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N12" s="2">
         <v>110</v>
@@ -3049,10 +3262,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>75996</v>
@@ -3061,28 +3274,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G13" s="2">
         <v>759960</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L13" s="2">
         <v>1730</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N13" s="2">
         <v>111</v>
@@ -3093,10 +3306,10 @@
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>15000</v>
@@ -3105,28 +3318,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L14" s="2">
         <v>1730</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N14" s="2">
         <v>112</v>
@@ -3137,10 +3350,10 @@
         <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>1537</v>
@@ -3149,28 +3362,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G15" s="2">
         <v>15370</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="2">
         <v>1730</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N15" s="2">
         <v>113</v>
@@ -3181,10 +3394,10 @@
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>138369</v>
@@ -3193,28 +3406,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G16" s="2">
         <v>1383690</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L16" s="2">
         <v>1730</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N16" s="2">
         <v>114</v>
@@ -3225,10 +3438,10 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>25000</v>
@@ -3237,28 +3450,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G17" s="2">
         <v>250000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L17" s="2">
         <v>1730</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N17" s="2">
         <v>115</v>
@@ -3269,10 +3482,10 @@
         <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>17352</v>
@@ -3281,28 +3494,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G18" s="2">
         <v>173520</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="2">
         <v>1730</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N18" s="2">
         <v>118</v>
@@ -3313,10 +3526,10 @@
         <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>130000</v>
@@ -3325,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L19" s="2">
         <v>1730</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N19" s="2">
         <v>119</v>
@@ -3357,10 +3570,10 @@
         <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>117</v>
@@ -3369,28 +3582,28 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G20" s="2">
         <v>1170</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L20" s="2">
         <v>1730</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="N20" s="2">
         <v>120</v>
@@ -3411,25 +3624,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3437,13 +3650,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2">
         <v>692.759</v>
@@ -3452,7 +3665,7 @@
         <v>3938.91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2">
         <v>2728715.35</v>
@@ -3463,13 +3676,13 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2">
         <v>91827.4</v>
@@ -3478,7 +3691,7 @@
         <v>10.8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H3" s="2">
         <v>991735.92</v>
@@ -3489,13 +3702,13 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E4" s="2">
         <v>30911.9</v>
@@ -3504,7 +3717,7 @@
         <v>34.41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2">
         <v>1063678.48</v>
@@ -3515,13 +3728,13 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2">
         <v>6208.4</v>
@@ -3530,7 +3743,7 @@
         <v>15.7597</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H5" s="2">
         <v>97842.52</v>
@@ -3541,13 +3754,13 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E6" s="2">
         <v>162999.2</v>
@@ -3556,7 +3769,7 @@
         <v>12.72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H6" s="2">
         <v>2073349.82</v>
@@ -3567,13 +3780,13 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2">
         <v>582.46</v>
@@ -3582,7 +3795,7 @@
         <v>22.09</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H7" s="2">
         <v>384104.86</v>
@@ -3593,13 +3806,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2">
         <v>441.95</v>
@@ -3608,7 +3821,7 @@
         <v>45.59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H8" s="2">
         <v>601493.19</v>
@@ -3619,13 +3832,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E9" s="2">
         <v>398.99</v>
@@ -3634,7 +3847,7 @@
         <v>111.1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2">
         <v>1323317.49</v>
@@ -3645,13 +3858,13 @@
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E10" s="2">
         <v>745.601</v>
@@ -3660,7 +3873,7 @@
         <v>132.7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H10" s="2">
         <v>2953693.22</v>
@@ -3671,13 +3884,13 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E11" s="2">
         <v>9614.11</v>
@@ -3686,7 +3899,7 @@
         <v>9.57</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H11" s="2">
         <v>2445546.93</v>
@@ -3697,13 +3910,13 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E12" s="2">
         <v>261.2</v>
@@ -3712,7 +3925,7 @@
         <v>47.71</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H12" s="2">
         <v>372023.67</v>
@@ -3723,13 +3936,13 @@
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E13" s="2">
         <v>79365.1</v>
@@ -3738,7 +3951,7 @@
         <v>11.98</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H13" s="2">
         <v>950793.9</v>
@@ -3749,13 +3962,13 @@
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E14" s="2">
         <v>200000</v>
@@ -3764,7 +3977,7 @@
         <v>10.09</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2">
         <v>2018000</v>
@@ -3775,13 +3988,13 @@
         <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E15" s="2">
         <v>200000</v>
@@ -3790,7 +4003,7 @@
         <v>9.96</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2">
         <v>1992000</v>
@@ -3801,22 +4014,22 @@
         <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F16" s="2">
         <v>10.4566</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H16" s="2">
         <v>2994602.93</v>
@@ -3827,13 +4040,13 @@
         <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E17" s="2">
         <v>449014</v>
@@ -3842,7 +4055,7 @@
         <v>15.7597</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2">
         <v>7076325.94</v>
@@ -3853,13 +4066,13 @@
         <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E18" s="2">
         <v>35511.5</v>
@@ -3868,7 +4081,7 @@
         <v>13.23</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H18" s="2">
         <v>469817.15</v>
@@ -3879,13 +4092,13 @@
         <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2">
         <v>1280.33</v>
@@ -3894,7 +4107,7 @@
         <v>17.42</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H19" s="2">
         <v>658394.85</v>
@@ -3905,13 +4118,13 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E20" s="2">
         <v>225.861</v>
@@ -3920,7 +4133,7 @@
         <v>43.3092</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H20" s="2">
         <v>288760.48</v>
@@ -3931,13 +4144,13 @@
         <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E21" s="2">
         <v>2859.477</v>
@@ -3946,7 +4159,7 @@
         <v>11.3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H21" s="2">
         <v>953852.9</v>
@@ -3957,13 +4170,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E22" s="2">
         <v>714.792</v>
@@ -3972,7 +4185,7 @@
         <v>43.3092</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H22" s="2">
         <v>913852.7</v>
@@ -3983,13 +4196,13 @@
         <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E23" s="2">
         <v>1631.321</v>
@@ -3998,7 +4211,7 @@
         <v>18.21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H23" s="2">
         <v>876931.61</v>
@@ -4009,13 +4222,13 @@
         <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E24" s="2">
         <v>628.532</v>
@@ -4024,7 +4237,7 @@
         <v>43.3092</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="H24" s="2">
         <v>803570.36</v>
@@ -4035,13 +4248,13 @@
         <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E25" s="2">
         <v>100</v>
@@ -4050,7 +4263,7 @@
         <v>1.698</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H25" s="2">
         <v>5012.5</v>
@@ -4061,13 +4274,13 @@
         <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E26" s="2">
         <v>43.3092</v>
@@ -4076,7 +4289,7 @@
         <v>104.655</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H26" s="2">
         <v>133800.12</v>
@@ -4087,13 +4300,13 @@
         <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E27" s="2">
         <v>150000</v>
@@ -4102,7 +4315,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H27" s="2">
         <v>1500000</v>
@@ -4113,13 +4326,13 @@
         <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E28" s="2">
         <v>830929.7</v>
@@ -4128,7 +4341,7 @@
         <v>12.09</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H28" s="2">
         <v>10045940.07</v>
@@ -4139,13 +4352,13 @@
         <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E29" s="2">
         <v>144.921</v>
@@ -4154,7 +4367,7 @@
         <v>180.31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H29" s="2">
         <v>780079.95</v>
@@ -4165,13 +4378,13 @@
         <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E30" s="2">
         <v>730.658</v>
@@ -4180,7 +4393,7 @@
         <v>15.05</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H30" s="2">
         <v>291745.57</v>
@@ -4191,13 +4404,13 @@
         <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E31" s="2">
         <v>7602.093</v>
@@ -4206,7 +4419,7 @@
         <v>11.3629</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H31" s="2">
         <v>2549991.4</v>
@@ -4217,13 +4430,13 @@
         <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E32" s="2">
         <v>65.55</v>
@@ -4232,7 +4445,7 @@
         <v>50.69</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H32" s="2">
         <v>88155.34</v>
@@ -4243,13 +4456,13 @@
         <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E33" s="2">
         <v>878.57</v>
@@ -4258,7 +4471,7 @@
         <v>38.52</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H33" s="2">
         <v>999031.08</v>
@@ -4269,13 +4482,13 @@
         <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E34" s="2">
         <v>150000</v>
@@ -4284,7 +4497,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H34" s="2">
         <v>1500000</v>
@@ -4295,13 +4508,13 @@
         <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E35" s="2">
         <v>360853.9</v>
@@ -4310,7 +4523,7 @@
         <v>11.25</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H35" s="2">
         <v>4059606.38</v>
@@ -4331,16 +4544,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4348,16 +4561,16 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4365,16 +4578,16 @@
         <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4382,16 +4595,16 @@
         <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4399,16 +4612,16 @@
         <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4416,16 +4629,16 @@
         <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4433,16 +4646,16 @@
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4450,16 +4663,16 @@
         <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4467,16 +4680,16 @@
         <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4484,16 +4697,16 @@
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4501,16 +4714,16 @@
         <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4518,16 +4731,16 @@
         <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4535,16 +4748,16 @@
         <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4552,16 +4765,16 @@
         <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4569,16 +4782,16 @@
         <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4586,16 +4799,16 @@
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4603,16 +4816,16 @@
         <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4620,16 +4833,16 @@
         <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4637,16 +4850,16 @@
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4654,13 +4867,13 @@
         <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2">
         <v>65485917</v>
@@ -4671,13 +4884,13 @@
         <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2">
         <v>99105</v>
@@ -4688,13 +4901,13 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2">
         <v>97111</v>
@@ -4705,16 +4918,16 @@
         <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4722,16 +4935,16 @@
         <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4739,13 +4952,13 @@
         <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -4754,13 +4967,13 @@
         <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -4769,13 +4982,13 @@
         <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -4784,16 +4997,16 @@
         <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4801,16 +5014,16 @@
         <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4818,16 +5031,16 @@
         <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4835,16 +5048,16 @@
         <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4852,16 +5065,16 @@
         <v>213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4869,16 +5082,16 @@
         <v>214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4886,16 +5099,16 @@
         <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4903,16 +5116,16 @@
         <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4930,22 +5143,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4953,22 +5166,22 @@
         <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4976,22 +5189,22 @@
         <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
+++ b/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="238">
   <si>
     <t>name</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>(超過五年停車位）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>JAGUARXF200803</t>
@@ -2223,38 +2226,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1">
-        <v>2967</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>2967</v>
@@ -2263,13 +2287,34 @@
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>300000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2287,13 +2332,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -2308,13 +2353,13 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -2329,20 +2374,20 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2350,13 +2395,13 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -2371,13 +2416,13 @@
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -2392,13 +2437,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -2413,13 +2458,13 @@
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -2434,13 +2479,13 @@
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -2455,13 +2500,13 @@
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -2478,13 +2523,13 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -2501,19 +2546,19 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G11" s="2">
         <v>14975221.25</v>
@@ -2524,13 +2569,13 @@
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
@@ -2547,13 +2592,13 @@
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -2568,13 +2613,13 @@
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
@@ -2589,13 +2634,13 @@
         <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
@@ -2612,13 +2657,13 @@
         <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>29</v>
@@ -2635,13 +2680,13 @@
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>29</v>
@@ -2658,13 +2703,13 @@
         <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
@@ -2679,13 +2724,13 @@
         <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
@@ -2700,13 +2745,13 @@
         <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
@@ -2721,13 +2766,13 @@
         <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>29</v>
@@ -2742,13 +2787,13 @@
         <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>29</v>
@@ -2765,13 +2810,13 @@
         <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
@@ -2786,13 +2831,13 @@
         <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
@@ -2809,19 +2854,19 @@
         <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G25" s="2">
         <v>6.44</v>
@@ -2832,20 +2877,20 @@
         <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2853,13 +2898,13 @@
         <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>29</v>
@@ -2876,13 +2921,13 @@
         <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>29</v>
@@ -2899,13 +2944,13 @@
         <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>29</v>
@@ -2922,13 +2967,13 @@
         <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>29</v>
@@ -2945,13 +2990,13 @@
         <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>29</v>
@@ -2968,13 +3013,13 @@
         <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>30</v>
@@ -3005,13 +3050,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3043,7 +3088,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -3055,13 +3100,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2">
         <v>208200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>42</v>
@@ -3087,7 +3132,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -3099,13 +3144,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2">
         <v>159100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>42</v>
@@ -3131,7 +3176,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -3143,13 +3188,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2">
         <v>4630</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>42</v>
@@ -3175,7 +3220,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
@@ -3187,13 +3232,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2">
         <v>51910</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>42</v>
@@ -3219,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -3231,13 +3276,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" s="2">
         <v>182190</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>42</v>
@@ -3263,7 +3308,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -3275,13 +3320,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2">
         <v>2270</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>42</v>
@@ -3307,25 +3352,25 @@
         <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2">
         <v>273940</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>42</v>
@@ -3351,7 +3396,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -3363,13 +3408,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2">
         <v>10700</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>42</v>
@@ -3395,7 +3440,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -3407,13 +3452,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2">
         <v>10350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>42</v>
@@ -3439,7 +3484,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -3451,13 +3496,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2">
         <v>4450</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>42</v>
@@ -3483,7 +3528,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -3495,13 +3540,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2">
         <v>71820</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>42</v>
@@ -3527,7 +3572,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -3539,13 +3584,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2">
         <v>759960</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>42</v>
@@ -3571,7 +3616,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -3583,13 +3628,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>42</v>
@@ -3615,7 +3660,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -3627,13 +3672,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2">
         <v>15370</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>42</v>
@@ -3659,7 +3704,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -3671,13 +3716,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2">
         <v>1383690</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>42</v>
@@ -3703,7 +3748,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -3715,13 +3760,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2">
         <v>250000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>42</v>
@@ -3747,7 +3792,7 @@
         <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -3759,13 +3804,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="2">
         <v>173520</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>42</v>
@@ -3791,7 +3836,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -3803,13 +3848,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>42</v>
@@ -3835,7 +3880,7 @@
         <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -3847,13 +3892,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2">
         <v>1170</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>42</v>
@@ -3889,13 +3934,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1">
         <v>692.759</v>
@@ -3904,7 +3949,7 @@
         <v>3938.91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1">
         <v>2728715.35</v>
@@ -3915,13 +3960,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>692.759</v>
@@ -3930,7 +3975,7 @@
         <v>3938.91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2">
         <v>2728715.35</v>
@@ -3941,13 +3986,13 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2">
         <v>91827.4</v>
@@ -3956,7 +4001,7 @@
         <v>10.8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2">
         <v>991735.92</v>
@@ -3967,13 +4012,13 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2">
         <v>30911.9</v>
@@ -3982,7 +4027,7 @@
         <v>34.41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2">
         <v>1063678.48</v>
@@ -3993,13 +4038,13 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2">
         <v>6208.4</v>
@@ -4008,7 +4053,7 @@
         <v>15.7597</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2">
         <v>97842.52</v>
@@ -4019,13 +4064,13 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2">
         <v>162999.2</v>
@@ -4034,7 +4079,7 @@
         <v>12.72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2">
         <v>2073349.82</v>
@@ -4045,13 +4090,13 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2">
         <v>582.46</v>
@@ -4060,7 +4105,7 @@
         <v>22.09</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" s="2">
         <v>384104.86</v>
@@ -4071,13 +4116,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E8" s="2">
         <v>441.95</v>
@@ -4086,7 +4131,7 @@
         <v>45.59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8" s="2">
         <v>601493.19</v>
@@ -4097,13 +4142,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E9" s="2">
         <v>398.99</v>
@@ -4112,7 +4157,7 @@
         <v>111.1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="2">
         <v>1323317.49</v>
@@ -4123,13 +4168,13 @@
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2">
         <v>745.601</v>
@@ -4138,7 +4183,7 @@
         <v>132.7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H10" s="2">
         <v>2953693.22</v>
@@ -4149,13 +4194,13 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E11" s="2">
         <v>9614.11</v>
@@ -4164,7 +4209,7 @@
         <v>9.57</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H11" s="2">
         <v>2445546.93</v>
@@ -4175,13 +4220,13 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2">
         <v>261.2</v>
@@ -4190,7 +4235,7 @@
         <v>47.71</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" s="2">
         <v>372023.67</v>
@@ -4201,13 +4246,13 @@
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2">
         <v>79365.1</v>
@@ -4216,7 +4261,7 @@
         <v>11.98</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" s="2">
         <v>950793.9</v>
@@ -4227,13 +4272,13 @@
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2">
         <v>200000</v>
@@ -4242,7 +4287,7 @@
         <v>10.09</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="2">
         <v>2018000</v>
@@ -4253,13 +4298,13 @@
         <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E15" s="2">
         <v>200000</v>
@@ -4268,7 +4313,7 @@
         <v>9.96</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2">
         <v>1992000</v>
@@ -4279,22 +4324,22 @@
         <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F16" s="2">
         <v>10.4566</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2">
         <v>2994602.93</v>
@@ -4305,13 +4350,13 @@
         <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E17" s="2">
         <v>449014</v>
@@ -4320,7 +4365,7 @@
         <v>15.7597</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2">
         <v>7076325.94</v>
@@ -4331,13 +4376,13 @@
         <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E18" s="2">
         <v>35511.5</v>
@@ -4346,7 +4391,7 @@
         <v>13.23</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H18" s="2">
         <v>469817.15</v>
@@ -4357,13 +4402,13 @@
         <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E19" s="2">
         <v>1280.33</v>
@@ -4372,7 +4417,7 @@
         <v>17.42</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="2">
         <v>658394.85</v>
@@ -4383,13 +4428,13 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2">
         <v>225.861</v>
@@ -4398,7 +4443,7 @@
         <v>43.3092</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2">
         <v>288760.48</v>
@@ -4409,13 +4454,13 @@
         <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E21" s="2">
         <v>2859.477</v>
@@ -4424,7 +4469,7 @@
         <v>11.3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" s="2">
         <v>953852.9</v>
@@ -4435,13 +4480,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E22" s="2">
         <v>714.792</v>
@@ -4450,7 +4495,7 @@
         <v>43.3092</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" s="2">
         <v>913852.7</v>
@@ -4461,13 +4506,13 @@
         <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E23" s="2">
         <v>1631.321</v>
@@ -4476,7 +4521,7 @@
         <v>18.21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" s="2">
         <v>876931.61</v>
@@ -4487,13 +4532,13 @@
         <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E24" s="2">
         <v>628.532</v>
@@ -4502,7 +4547,7 @@
         <v>43.3092</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" s="2">
         <v>803570.36</v>
@@ -4513,13 +4558,13 @@
         <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E25" s="2">
         <v>100</v>
@@ -4528,7 +4573,7 @@
         <v>1.698</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="2">
         <v>5012.5</v>
@@ -4539,13 +4584,13 @@
         <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E26" s="2">
         <v>43.3092</v>
@@ -4554,7 +4599,7 @@
         <v>104.655</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H26" s="2">
         <v>133800.12</v>
@@ -4565,13 +4610,13 @@
         <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E27" s="2">
         <v>150000</v>
@@ -4580,7 +4625,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" s="2">
         <v>1500000</v>
@@ -4591,13 +4636,13 @@
         <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E28" s="2">
         <v>830929.7</v>
@@ -4606,7 +4651,7 @@
         <v>12.09</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H28" s="2">
         <v>10045940.07</v>
@@ -4617,13 +4662,13 @@
         <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E29" s="2">
         <v>144.921</v>
@@ -4632,7 +4677,7 @@
         <v>180.31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" s="2">
         <v>780079.95</v>
@@ -4643,13 +4688,13 @@
         <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E30" s="2">
         <v>730.658</v>
@@ -4658,7 +4703,7 @@
         <v>15.05</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" s="2">
         <v>291745.57</v>
@@ -4669,13 +4714,13 @@
         <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E31" s="2">
         <v>7602.093</v>
@@ -4684,7 +4729,7 @@
         <v>11.3629</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" s="2">
         <v>2549991.4</v>
@@ -4695,13 +4740,13 @@
         <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E32" s="2">
         <v>65.55</v>
@@ -4710,7 +4755,7 @@
         <v>50.69</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" s="2">
         <v>88155.34</v>
@@ -4721,13 +4766,13 @@
         <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2">
         <v>878.57</v>
@@ -4736,7 +4781,7 @@
         <v>38.52</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H33" s="2">
         <v>999031.08</v>
@@ -4747,13 +4792,13 @@
         <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E34" s="2">
         <v>150000</v>
@@ -4762,7 +4807,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" s="2">
         <v>1500000</v>
@@ -4773,13 +4818,13 @@
         <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E35" s="2">
         <v>360853.9</v>
@@ -4788,7 +4833,7 @@
         <v>11.25</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H35" s="2">
         <v>4059606.38</v>
@@ -4809,16 +4854,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4826,16 +4871,16 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4843,16 +4888,16 @@
         <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4860,16 +4905,16 @@
         <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4877,16 +4922,16 @@
         <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4894,16 +4939,16 @@
         <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4911,16 +4956,16 @@
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4928,16 +4973,16 @@
         <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4945,16 +4990,16 @@
         <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4962,16 +5007,16 @@
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4979,16 +5024,16 @@
         <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4996,16 +5041,16 @@
         <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5013,16 +5058,16 @@
         <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5030,16 +5075,16 @@
         <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5047,16 +5092,16 @@
         <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5064,16 +5109,16 @@
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5081,16 +5126,16 @@
         <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5098,16 +5143,16 @@
         <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5115,16 +5160,16 @@
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5132,10 +5177,10 @@
         <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -5149,10 +5194,10 @@
         <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -5166,10 +5211,10 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -5183,16 +5228,16 @@
         <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5200,16 +5245,16 @@
         <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5217,10 +5262,10 @@
         <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
@@ -5232,10 +5277,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
@@ -5247,10 +5292,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
@@ -5262,16 +5307,16 @@
         <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5279,16 +5324,16 @@
         <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5296,16 +5341,16 @@
         <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5313,16 +5358,16 @@
         <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5330,16 +5375,16 @@
         <v>213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5347,16 +5392,16 @@
         <v>214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5364,16 +5409,16 @@
         <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5381,16 +5426,16 @@
         <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5411,19 +5456,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5434,19 +5479,19 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5457,19 +5502,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
+++ b/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="240">
   <si>
     <t>name</t>
   </si>
@@ -212,6 +212,9 @@
     <t>(超過五年停車位）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -222,6 +225,9 @@
   </si>
   <si>
     <t>所有權移轉</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北市第九信用合作社士林分社</t>
@@ -1715,7 +1721,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>42</v>
@@ -1768,7 +1774,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>42</v>
@@ -1821,7 +1827,7 @@
         <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>42</v>
@@ -1874,7 +1880,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>42</v>
@@ -1927,7 +1933,7 @@
         <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>42</v>
@@ -1980,7 +1986,7 @@
         <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>42</v>
@@ -2033,7 +2039,7 @@
         <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>42</v>
@@ -2086,7 +2092,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>42</v>
@@ -2139,7 +2145,7 @@
         <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>42</v>
@@ -2192,7 +2198,7 @@
         <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>42</v>
@@ -2237,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2278,7 +2284,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>2967</v>
@@ -2287,16 +2293,16 @@
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>300000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>42</v>
@@ -2332,13 +2338,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -2353,13 +2359,13 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -2374,20 +2380,20 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2395,13 +2401,13 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -2416,13 +2422,13 @@
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -2437,13 +2443,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -2458,13 +2464,13 @@
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -2479,13 +2485,13 @@
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -2500,13 +2506,13 @@
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -2523,13 +2529,13 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -2546,19 +2552,19 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2">
         <v>14975221.25</v>
@@ -2569,13 +2575,13 @@
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
@@ -2592,13 +2598,13 @@
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -2613,13 +2619,13 @@
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
@@ -2634,13 +2640,13 @@
         <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
@@ -2657,13 +2663,13 @@
         <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>29</v>
@@ -2680,13 +2686,13 @@
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>29</v>
@@ -2703,13 +2709,13 @@
         <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
@@ -2724,13 +2730,13 @@
         <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
@@ -2745,13 +2751,13 @@
         <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
@@ -2766,13 +2772,13 @@
         <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>29</v>
@@ -2787,13 +2793,13 @@
         <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>29</v>
@@ -2810,13 +2816,13 @@
         <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
@@ -2831,13 +2837,13 @@
         <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
@@ -2854,19 +2860,19 @@
         <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G25" s="2">
         <v>6.44</v>
@@ -2877,20 +2883,20 @@
         <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2898,13 +2904,13 @@
         <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>29</v>
@@ -2921,13 +2927,13 @@
         <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>29</v>
@@ -2944,13 +2950,13 @@
         <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>29</v>
@@ -2967,13 +2973,13 @@
         <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>29</v>
@@ -2990,13 +2996,13 @@
         <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>29</v>
@@ -3013,13 +3019,13 @@
         <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>30</v>
@@ -3050,13 +3056,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3088,7 +3094,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -3100,13 +3106,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2">
         <v>208200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>42</v>
@@ -3132,7 +3138,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -3144,13 +3150,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2">
         <v>159100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>42</v>
@@ -3176,7 +3182,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -3188,13 +3194,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2">
         <v>4630</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>42</v>
@@ -3220,7 +3226,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
@@ -3232,13 +3238,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2">
         <v>51910</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>42</v>
@@ -3264,7 +3270,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -3276,13 +3282,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2">
         <v>182190</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>42</v>
@@ -3308,7 +3314,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -3320,13 +3326,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2">
         <v>2270</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>42</v>
@@ -3352,25 +3358,25 @@
         <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2">
         <v>273940</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>42</v>
@@ -3396,7 +3402,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -3408,13 +3414,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2">
         <v>10700</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>42</v>
@@ -3440,7 +3446,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -3452,13 +3458,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" s="2">
         <v>10350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>42</v>
@@ -3484,7 +3490,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -3496,13 +3502,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2">
         <v>4450</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>42</v>
@@ -3528,7 +3534,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -3540,13 +3546,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="2">
         <v>71820</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>42</v>
@@ -3572,7 +3578,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -3584,13 +3590,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2">
         <v>759960</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>42</v>
@@ -3616,7 +3622,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -3628,13 +3634,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>42</v>
@@ -3660,7 +3666,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -3672,13 +3678,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2">
         <v>15370</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>42</v>
@@ -3704,7 +3710,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -3716,13 +3722,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2">
         <v>1383690</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>42</v>
@@ -3748,7 +3754,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -3760,13 +3766,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2">
         <v>250000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>42</v>
@@ -3792,7 +3798,7 @@
         <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -3804,13 +3810,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2">
         <v>173520</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>42</v>
@@ -3836,7 +3842,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -3848,13 +3854,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>42</v>
@@ -3880,7 +3886,7 @@
         <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -3892,13 +3898,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G20" s="2">
         <v>1170</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>42</v>
@@ -3934,13 +3940,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1">
         <v>692.759</v>
@@ -3949,7 +3955,7 @@
         <v>3938.91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1">
         <v>2728715.35</v>
@@ -3960,13 +3966,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2">
         <v>692.759</v>
@@ -3975,7 +3981,7 @@
         <v>3938.91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2">
         <v>2728715.35</v>
@@ -3986,13 +3992,13 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
         <v>91827.4</v>
@@ -4001,7 +4007,7 @@
         <v>10.8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2">
         <v>991735.92</v>
@@ -4012,13 +4018,13 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2">
         <v>30911.9</v>
@@ -4027,7 +4033,7 @@
         <v>34.41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2">
         <v>1063678.48</v>
@@ -4038,13 +4044,13 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2">
         <v>6208.4</v>
@@ -4053,7 +4059,7 @@
         <v>15.7597</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2">
         <v>97842.52</v>
@@ -4064,13 +4070,13 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2">
         <v>162999.2</v>
@@ -4079,7 +4085,7 @@
         <v>12.72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2">
         <v>2073349.82</v>
@@ -4090,13 +4096,13 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E7" s="2">
         <v>582.46</v>
@@ -4105,7 +4111,7 @@
         <v>22.09</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H7" s="2">
         <v>384104.86</v>
@@ -4116,13 +4122,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E8" s="2">
         <v>441.95</v>
@@ -4131,7 +4137,7 @@
         <v>45.59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2">
         <v>601493.19</v>
@@ -4142,13 +4148,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E9" s="2">
         <v>398.99</v>
@@ -4157,7 +4163,7 @@
         <v>111.1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2">
         <v>1323317.49</v>
@@ -4168,13 +4174,13 @@
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2">
         <v>745.601</v>
@@ -4183,7 +4189,7 @@
         <v>132.7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2">
         <v>2953693.22</v>
@@ -4194,13 +4200,13 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2">
         <v>9614.11</v>
@@ -4209,7 +4215,7 @@
         <v>9.57</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H11" s="2">
         <v>2445546.93</v>
@@ -4220,13 +4226,13 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2">
         <v>261.2</v>
@@ -4235,7 +4241,7 @@
         <v>47.71</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H12" s="2">
         <v>372023.67</v>
@@ -4246,13 +4252,13 @@
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E13" s="2">
         <v>79365.1</v>
@@ -4261,7 +4267,7 @@
         <v>11.98</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2">
         <v>950793.9</v>
@@ -4272,13 +4278,13 @@
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2">
         <v>200000</v>
@@ -4287,7 +4293,7 @@
         <v>10.09</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2">
         <v>2018000</v>
@@ -4298,13 +4304,13 @@
         <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2">
         <v>200000</v>
@@ -4313,7 +4319,7 @@
         <v>9.96</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H15" s="2">
         <v>1992000</v>
@@ -4324,22 +4330,22 @@
         <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F16" s="2">
         <v>10.4566</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2">
         <v>2994602.93</v>
@@ -4350,13 +4356,13 @@
         <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E17" s="2">
         <v>449014</v>
@@ -4365,7 +4371,7 @@
         <v>15.7597</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2">
         <v>7076325.94</v>
@@ -4376,13 +4382,13 @@
         <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E18" s="2">
         <v>35511.5</v>
@@ -4391,7 +4397,7 @@
         <v>13.23</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2">
         <v>469817.15</v>
@@ -4402,13 +4408,13 @@
         <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E19" s="2">
         <v>1280.33</v>
@@ -4417,7 +4423,7 @@
         <v>17.42</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" s="2">
         <v>658394.85</v>
@@ -4428,13 +4434,13 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2">
         <v>225.861</v>
@@ -4443,7 +4449,7 @@
         <v>43.3092</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H20" s="2">
         <v>288760.48</v>
@@ -4454,13 +4460,13 @@
         <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E21" s="2">
         <v>2859.477</v>
@@ -4469,7 +4475,7 @@
         <v>11.3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H21" s="2">
         <v>953852.9</v>
@@ -4480,13 +4486,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E22" s="2">
         <v>714.792</v>
@@ -4495,7 +4501,7 @@
         <v>43.3092</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H22" s="2">
         <v>913852.7</v>
@@ -4506,13 +4512,13 @@
         <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E23" s="2">
         <v>1631.321</v>
@@ -4521,7 +4527,7 @@
         <v>18.21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H23" s="2">
         <v>876931.61</v>
@@ -4532,13 +4538,13 @@
         <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E24" s="2">
         <v>628.532</v>
@@ -4547,7 +4553,7 @@
         <v>43.3092</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H24" s="2">
         <v>803570.36</v>
@@ -4558,13 +4564,13 @@
         <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E25" s="2">
         <v>100</v>
@@ -4573,7 +4579,7 @@
         <v>1.698</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H25" s="2">
         <v>5012.5</v>
@@ -4584,13 +4590,13 @@
         <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E26" s="2">
         <v>43.3092</v>
@@ -4599,7 +4605,7 @@
         <v>104.655</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H26" s="2">
         <v>133800.12</v>
@@ -4610,13 +4616,13 @@
         <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E27" s="2">
         <v>150000</v>
@@ -4625,7 +4631,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H27" s="2">
         <v>1500000</v>
@@ -4636,13 +4642,13 @@
         <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E28" s="2">
         <v>830929.7</v>
@@ -4651,7 +4657,7 @@
         <v>12.09</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" s="2">
         <v>10045940.07</v>
@@ -4662,13 +4668,13 @@
         <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E29" s="2">
         <v>144.921</v>
@@ -4677,7 +4683,7 @@
         <v>180.31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H29" s="2">
         <v>780079.95</v>
@@ -4688,13 +4694,13 @@
         <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E30" s="2">
         <v>730.658</v>
@@ -4703,7 +4709,7 @@
         <v>15.05</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H30" s="2">
         <v>291745.57</v>
@@ -4714,13 +4720,13 @@
         <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E31" s="2">
         <v>7602.093</v>
@@ -4729,7 +4735,7 @@
         <v>11.3629</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H31" s="2">
         <v>2549991.4</v>
@@ -4740,13 +4746,13 @@
         <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E32" s="2">
         <v>65.55</v>
@@ -4755,7 +4761,7 @@
         <v>50.69</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H32" s="2">
         <v>88155.34</v>
@@ -4766,13 +4772,13 @@
         <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E33" s="2">
         <v>878.57</v>
@@ -4781,7 +4787,7 @@
         <v>38.52</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H33" s="2">
         <v>999031.08</v>
@@ -4792,13 +4798,13 @@
         <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E34" s="2">
         <v>150000</v>
@@ -4807,7 +4813,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H34" s="2">
         <v>1500000</v>
@@ -4818,13 +4824,13 @@
         <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E35" s="2">
         <v>360853.9</v>
@@ -4833,7 +4839,7 @@
         <v>11.25</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H35" s="2">
         <v>4059606.38</v>
@@ -4854,16 +4860,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4871,16 +4877,16 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4888,16 +4894,16 @@
         <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4905,16 +4911,16 @@
         <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4922,16 +4928,16 @@
         <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4939,16 +4945,16 @@
         <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4956,16 +4962,16 @@
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4973,16 +4979,16 @@
         <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4990,16 +4996,16 @@
         <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5007,16 +5013,16 @@
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5024,16 +5030,16 @@
         <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5041,16 +5047,16 @@
         <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5058,16 +5064,16 @@
         <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5075,16 +5081,16 @@
         <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5092,16 +5098,16 @@
         <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5109,16 +5115,16 @@
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5126,16 +5132,16 @@
         <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5143,16 +5149,16 @@
         <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5160,16 +5166,16 @@
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5177,10 +5183,10 @@
         <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -5194,10 +5200,10 @@
         <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -5211,10 +5217,10 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -5228,16 +5234,16 @@
         <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5245,16 +5251,16 @@
         <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5262,10 +5268,10 @@
         <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
@@ -5277,10 +5283,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
@@ -5292,10 +5298,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
@@ -5307,16 +5313,16 @@
         <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5324,16 +5330,16 @@
         <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5341,16 +5347,16 @@
         <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5358,16 +5364,16 @@
         <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5375,16 +5381,16 @@
         <v>213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5392,16 +5398,16 @@
         <v>214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5409,16 +5415,16 @@
         <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5426,16 +5432,16 @@
         <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5456,19 +5462,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5479,19 +5485,19 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5502,19 +5508,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
+++ b/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="239">
   <si>
     <t>name</t>
   </si>
@@ -230,75 +230,84 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北市第九信用合作社士林分社</t>
   </si>
   <si>
+    <t>士林蘭雅郵局(第83支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行士林分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行慶城分行</t>
+  </si>
+  <si>
+    <t>香港EFG銀行</t>
+  </si>
+  <si>
+    <t>德國郵局</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行瑞光分fT</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北體育場郵局(第81支局)</t>
+  </si>
+  <si>
+    <t>第一商業銀行民生分行‘</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行營業部</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>外幣存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>士林蘭雅郵局(第83支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行士林分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行天母分行</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行慶城分行</t>
-  </si>
-  <si>
-    <t>香港EFG銀行</t>
-  </si>
-  <si>
-    <t>德國郵局</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行天母分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行瑞光分fT</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北體育場郵局(第81支局)</t>
-  </si>
-  <si>
-    <t>第一商業銀行民生分行‘</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行營業部</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>外幣存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -323,25 +332,13 @@
     <t>南非幣</t>
   </si>
   <si>
-    <t>500676.07</t>
-  </si>
-  <si>
-    <t>.0.23</t>
-  </si>
-  <si>
-    <t>280570</t>
-  </si>
-  <si>
-    <t>4228084</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台灣塑膠工業股份有限公司</t>
@@ -2330,13 +2327,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
@@ -2347,692 +2344,1302 @@
         <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>3082601</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>3082601</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>280570</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>72472</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>108418</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1187848</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>536625</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>788</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>14255.57</v>
-      </c>
-      <c r="G9" s="2">
         <v>420824.42</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2">
-        <v>5.14</v>
-      </c>
-      <c r="G10" s="2">
         <v>209.71</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>14975221.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="2">
-        <v>4434.77</v>
-      </c>
-      <c r="G12" s="2">
         <v>117658.88</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>39337</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>557405</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="2">
-        <v>2568.36</v>
-      </c>
-      <c r="G15" s="2">
         <v>75817.98</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="2">
-        <v>105469.19</v>
-      </c>
-      <c r="G16" s="2">
         <v>3113450.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="2">
-        <v>2033.56</v>
-      </c>
-      <c r="G17" s="2">
         <v>82969.24</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>21080</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>8180</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>72389</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>188403</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="2">
-        <v>461.34</v>
-      </c>
-      <c r="G22" s="2">
         <v>13618.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>273449</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="2">
-        <v>250000</v>
-      </c>
-      <c r="G24" s="2">
         <v>7380000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>6.44</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>4228084</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="G27" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2">
+        <v>6607436.09</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="2">
         <v>89</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="2">
-        <v>162093.96</v>
-      </c>
-      <c r="G28" s="2">
-        <v>6607436.09</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="2">
-        <v>100000.5</v>
-      </c>
-      <c r="G29" s="2">
         <v>492452.46</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1181880</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="2">
         <v>91</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="2">
-        <v>240000</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1181880</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="2">
-        <v>790.07</v>
-      </c>
-      <c r="G31" s="2">
         <v>2330.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
+      <c r="F32" s="2">
         <v>2000000</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="2">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3062,7 +3669,7 @@
         <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3094,7 +3701,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -3106,13 +3713,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2">
         <v>208200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>42</v>
@@ -3138,7 +3745,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -3150,13 +3757,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2">
         <v>159100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>42</v>
@@ -3182,7 +3789,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -3194,13 +3801,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2">
         <v>4630</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>42</v>
@@ -3226,7 +3833,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
@@ -3238,13 +3845,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2">
         <v>51910</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>42</v>
@@ -3270,7 +3877,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -3282,13 +3889,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2">
         <v>182190</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>42</v>
@@ -3314,7 +3921,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -3326,13 +3933,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2">
         <v>2270</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>42</v>
@@ -3358,25 +3965,25 @@
         <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2">
         <v>273940</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>42</v>
@@ -3402,7 +4009,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -3414,13 +4021,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G9" s="2">
         <v>10700</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>42</v>
@@ -3446,7 +4053,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -3458,13 +4065,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G10" s="2">
         <v>10350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>42</v>
@@ -3490,7 +4097,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -3502,13 +4109,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G11" s="2">
         <v>4450</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>42</v>
@@ -3534,7 +4141,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -3546,13 +4153,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G12" s="2">
         <v>71820</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>42</v>
@@ -3578,7 +4185,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -3590,13 +4197,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G13" s="2">
         <v>759960</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>42</v>
@@ -3622,7 +4229,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -3634,13 +4241,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>42</v>
@@ -3666,7 +4273,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -3678,13 +4285,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G15" s="2">
         <v>15370</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>42</v>
@@ -3710,7 +4317,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -3722,13 +4329,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2">
         <v>1383690</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>42</v>
@@ -3754,7 +4361,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -3766,13 +4373,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G17" s="2">
         <v>250000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>42</v>
@@ -3798,7 +4405,7 @@
         <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -3810,13 +4417,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2">
         <v>173520</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>42</v>
@@ -3842,7 +4449,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -3854,13 +4461,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>42</v>
@@ -3886,7 +4493,7 @@
         <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -3898,13 +4505,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G20" s="2">
         <v>1170</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>42</v>
@@ -3940,13 +4547,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E1" s="1">
         <v>692.759</v>
@@ -3955,7 +4562,7 @@
         <v>3938.91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1">
         <v>2728715.35</v>
@@ -3966,13 +4573,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E2" s="2">
         <v>692.759</v>
@@ -3981,7 +4588,7 @@
         <v>3938.91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2">
         <v>2728715.35</v>
@@ -3992,13 +4599,13 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2">
         <v>91827.4</v>
@@ -4007,7 +4614,7 @@
         <v>10.8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2">
         <v>991735.92</v>
@@ -4018,13 +4625,13 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="2">
         <v>30911.9</v>
@@ -4033,7 +4640,7 @@
         <v>34.41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H4" s="2">
         <v>1063678.48</v>
@@ -4044,13 +4651,13 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2">
         <v>6208.4</v>
@@ -4059,7 +4666,7 @@
         <v>15.7597</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2">
         <v>97842.52</v>
@@ -4070,13 +4677,13 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="2">
         <v>162999.2</v>
@@ -4085,7 +4692,7 @@
         <v>12.72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2">
         <v>2073349.82</v>
@@ -4096,13 +4703,13 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2">
         <v>582.46</v>
@@ -4111,7 +4718,7 @@
         <v>22.09</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H7" s="2">
         <v>384104.86</v>
@@ -4122,13 +4729,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="2">
         <v>441.95</v>
@@ -4137,7 +4744,7 @@
         <v>45.59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H8" s="2">
         <v>601493.19</v>
@@ -4148,13 +4755,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2">
         <v>398.99</v>
@@ -4163,7 +4770,7 @@
         <v>111.1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H9" s="2">
         <v>1323317.49</v>
@@ -4174,13 +4781,13 @@
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="2">
         <v>745.601</v>
@@ -4189,7 +4796,7 @@
         <v>132.7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H10" s="2">
         <v>2953693.22</v>
@@ -4200,13 +4807,13 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2">
         <v>9614.11</v>
@@ -4215,7 +4822,7 @@
         <v>9.57</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H11" s="2">
         <v>2445546.93</v>
@@ -4226,13 +4833,13 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2">
         <v>261.2</v>
@@ -4241,7 +4848,7 @@
         <v>47.71</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H12" s="2">
         <v>372023.67</v>
@@ -4252,13 +4859,13 @@
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2">
         <v>79365.1</v>
@@ -4267,7 +4874,7 @@
         <v>11.98</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H13" s="2">
         <v>950793.9</v>
@@ -4278,13 +4885,13 @@
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2">
         <v>200000</v>
@@ -4293,7 +4900,7 @@
         <v>10.09</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H14" s="2">
         <v>2018000</v>
@@ -4304,13 +4911,13 @@
         <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2">
         <v>200000</v>
@@ -4319,7 +4926,7 @@
         <v>9.96</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H15" s="2">
         <v>1992000</v>
@@ -4330,22 +4937,22 @@
         <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F16" s="2">
         <v>10.4566</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H16" s="2">
         <v>2994602.93</v>
@@ -4356,13 +4963,13 @@
         <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="2">
         <v>449014</v>
@@ -4371,7 +4978,7 @@
         <v>15.7597</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H17" s="2">
         <v>7076325.94</v>
@@ -4382,13 +4989,13 @@
         <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18" s="2">
         <v>35511.5</v>
@@ -4397,7 +5004,7 @@
         <v>13.23</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H18" s="2">
         <v>469817.15</v>
@@ -4408,13 +5015,13 @@
         <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2">
         <v>1280.33</v>
@@ -4423,7 +5030,7 @@
         <v>17.42</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H19" s="2">
         <v>658394.85</v>
@@ -4434,13 +5041,13 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2">
         <v>225.861</v>
@@ -4449,7 +5056,7 @@
         <v>43.3092</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H20" s="2">
         <v>288760.48</v>
@@ -4460,13 +5067,13 @@
         <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="2">
         <v>2859.477</v>
@@ -4475,7 +5082,7 @@
         <v>11.3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H21" s="2">
         <v>953852.9</v>
@@ -4486,13 +5093,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E22" s="2">
         <v>714.792</v>
@@ -4501,7 +5108,7 @@
         <v>43.3092</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H22" s="2">
         <v>913852.7</v>
@@ -4512,13 +5119,13 @@
         <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E23" s="2">
         <v>1631.321</v>
@@ -4527,7 +5134,7 @@
         <v>18.21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H23" s="2">
         <v>876931.61</v>
@@ -4538,13 +5145,13 @@
         <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E24" s="2">
         <v>628.532</v>
@@ -4553,7 +5160,7 @@
         <v>43.3092</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H24" s="2">
         <v>803570.36</v>
@@ -4564,13 +5171,13 @@
         <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E25" s="2">
         <v>100</v>
@@ -4579,7 +5186,7 @@
         <v>1.698</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H25" s="2">
         <v>5012.5</v>
@@ -4590,13 +5197,13 @@
         <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E26" s="2">
         <v>43.3092</v>
@@ -4605,7 +5212,7 @@
         <v>104.655</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H26" s="2">
         <v>133800.12</v>
@@ -4616,13 +5223,13 @@
         <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E27" s="2">
         <v>150000</v>
@@ -4631,7 +5238,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H27" s="2">
         <v>1500000</v>
@@ -4642,13 +5249,13 @@
         <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="2">
         <v>830929.7</v>
@@ -4657,7 +5264,7 @@
         <v>12.09</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H28" s="2">
         <v>10045940.07</v>
@@ -4668,13 +5275,13 @@
         <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E29" s="2">
         <v>144.921</v>
@@ -4683,7 +5290,7 @@
         <v>180.31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H29" s="2">
         <v>780079.95</v>
@@ -4694,13 +5301,13 @@
         <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E30" s="2">
         <v>730.658</v>
@@ -4709,7 +5316,7 @@
         <v>15.05</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H30" s="2">
         <v>291745.57</v>
@@ -4720,13 +5327,13 @@
         <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" s="2">
         <v>7602.093</v>
@@ -4735,7 +5342,7 @@
         <v>11.3629</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H31" s="2">
         <v>2549991.4</v>
@@ -4746,13 +5353,13 @@
         <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" s="2">
         <v>65.55</v>
@@ -4761,7 +5368,7 @@
         <v>50.69</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H32" s="2">
         <v>88155.34</v>
@@ -4772,13 +5379,13 @@
         <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E33" s="2">
         <v>878.57</v>
@@ -4787,7 +5394,7 @@
         <v>38.52</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H33" s="2">
         <v>999031.08</v>
@@ -4798,13 +5405,13 @@
         <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E34" s="2">
         <v>150000</v>
@@ -4813,7 +5420,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H34" s="2">
         <v>1500000</v>
@@ -4824,13 +5431,13 @@
         <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35" s="2">
         <v>360853.9</v>
@@ -4839,7 +5446,7 @@
         <v>11.25</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H35" s="2">
         <v>4059606.38</v>
@@ -4860,16 +5467,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4877,16 +5484,16 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4894,16 +5501,16 @@
         <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4911,16 +5518,16 @@
         <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4928,16 +5535,16 @@
         <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4945,16 +5552,16 @@
         <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4962,16 +5569,16 @@
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4979,16 +5586,16 @@
         <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4996,16 +5603,16 @@
         <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5013,16 +5620,16 @@
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5030,16 +5637,16 @@
         <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5047,16 +5654,16 @@
         <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5064,16 +5671,16 @@
         <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5081,16 +5688,16 @@
         <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5098,16 +5705,16 @@
         <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5115,16 +5722,16 @@
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5132,16 +5739,16 @@
         <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5149,16 +5756,16 @@
         <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5166,16 +5773,16 @@
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5183,10 +5790,10 @@
         <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -5200,10 +5807,10 @@
         <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -5217,10 +5824,10 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -5234,16 +5841,16 @@
         <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5251,16 +5858,16 @@
         <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5268,10 +5875,10 @@
         <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
@@ -5283,10 +5890,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
@@ -5298,10 +5905,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
@@ -5313,16 +5920,16 @@
         <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5330,16 +5937,16 @@
         <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5347,16 +5954,16 @@
         <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5364,16 +5971,16 @@
         <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5381,16 +5988,16 @@
         <v>213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5398,16 +6005,16 @@
         <v>214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5415,16 +6022,16 @@
         <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5432,16 +6039,16 @@
         <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5462,19 +6069,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5485,19 +6092,19 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5508,19 +6115,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
+++ b/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="240">
   <si>
     <t>name</t>
   </si>
@@ -401,105 +401,108 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>摩根多重收益美元月配</t>
   </si>
   <si>
+    <t>群益華夏盛世基金</t>
+  </si>
+  <si>
+    <t>群益中小型股基金</t>
+  </si>
+  <si>
+    <t>群益安穩貨幣市場基金</t>
+  </si>
+  <si>
+    <t>群益多重資產組合基金</t>
+  </si>
+  <si>
+    <t>富達印尼基金</t>
+  </si>
+  <si>
+    <t>富達中國聚焦基金</t>
+  </si>
+  <si>
+    <t>摩根東協基金</t>
+  </si>
+  <si>
+    <t>摩根多重收益美元</t>
+  </si>
+  <si>
+    <t>摩根環高收債澳幣</t>
+  </si>
+  <si>
+    <t>貝萊德日特時機</t>
+  </si>
+  <si>
+    <t>德盛安聯中國東協</t>
+  </si>
+  <si>
+    <t>德盛四季雙收入</t>
+  </si>
+  <si>
+    <t>匯豐中國A股匯聚</t>
+  </si>
+  <si>
+    <t>富蘭克林華美全高</t>
+  </si>
+  <si>
+    <t>群益安穩貨幣市場</t>
+  </si>
+  <si>
+    <t>價值卓越</t>
+  </si>
+  <si>
+    <t>新興市場美</t>
+  </si>
+  <si>
+    <t>亞洲小型公</t>
+  </si>
+  <si>
+    <t>新興國家B</t>
+  </si>
+  <si>
+    <t>全債總報酬</t>
+  </si>
+  <si>
+    <t>霸菱東歐基</t>
+  </si>
+  <si>
+    <t>群益全球關鍵生技基金</t>
+  </si>
+  <si>
+    <t>群益鑫盛一號基金</t>
+  </si>
+  <si>
+    <t>摩根印度基金</t>
+  </si>
+  <si>
+    <t>美收澳幣</t>
+  </si>
+  <si>
+    <t>SK曰本股</t>
+  </si>
+  <si>
+    <t>富達澳洲</t>
+  </si>
+  <si>
+    <t>施羅歐小</t>
+  </si>
+  <si>
+    <t>群益美國新創亮點基金</t>
+  </si>
+  <si>
+    <t>多利策略組合</t>
+  </si>
+  <si>
+    <t>黃瑞明.</t>
+  </si>
+  <si>
     <t>匯豐銀行南京東路分行</t>
   </si>
   <si>
-    <t>群益華夏盛世基金</t>
-  </si>
-  <si>
-    <t>群益中小型股基金</t>
-  </si>
-  <si>
-    <t>群益安穩貨幣市場基金</t>
-  </si>
-  <si>
-    <t>群益多重資產組合基金</t>
-  </si>
-  <si>
-    <t>富達印尼基金</t>
-  </si>
-  <si>
-    <t>富達中國聚焦基金</t>
-  </si>
-  <si>
-    <t>摩根東協基金</t>
-  </si>
-  <si>
-    <t>摩根多重收益美元</t>
-  </si>
-  <si>
-    <t>摩根環高收債澳幣</t>
-  </si>
-  <si>
-    <t>貝萊德日特時機</t>
-  </si>
-  <si>
-    <t>德盛安聯中國東協</t>
-  </si>
-  <si>
-    <t>德盛四季雙收入</t>
-  </si>
-  <si>
-    <t>匯豐中國A股匯聚</t>
-  </si>
-  <si>
-    <t>富蘭克林華美全高</t>
-  </si>
-  <si>
-    <t>群益安穩貨幣市場</t>
-  </si>
-  <si>
-    <t>價值卓越</t>
-  </si>
-  <si>
-    <t>新興市場美</t>
-  </si>
-  <si>
-    <t>亞洲小型公</t>
-  </si>
-  <si>
-    <t>新興國家B</t>
-  </si>
-  <si>
-    <t>全債總報酬</t>
-  </si>
-  <si>
-    <t>霸菱東歐基</t>
-  </si>
-  <si>
-    <t>群益全球關鍵生技基金</t>
-  </si>
-  <si>
-    <t>群益鑫盛一號基金</t>
-  </si>
-  <si>
-    <t>摩根印度基金</t>
-  </si>
-  <si>
-    <t>美收澳幣</t>
-  </si>
-  <si>
-    <t>SK曰本股</t>
-  </si>
-  <si>
-    <t>富達澳洲</t>
-  </si>
-  <si>
-    <t>施羅歐小</t>
-  </si>
-  <si>
-    <t>群益美國新創亮點基金</t>
-  </si>
-  <si>
-    <t>多利策略組合</t>
-  </si>
-  <si>
-    <t>黃瑞明.</t>
-  </si>
-  <si>
     <t>群益證券投資股份有限公司</t>
   </si>
   <si>
@@ -521,7 +524,7 @@
     <t>8160016安泰商</t>
   </si>
   <si>
-    <t>.286384</t>
+    <t>fund</t>
   </si>
   <si>
     <t>南山人壽保險股份有限公司</t>
@@ -4539,47 +4542,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1">
-        <v>692.759</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3938.91</v>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2728715.35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2">
         <v>692.759</v>
@@ -4593,8 +4617,29 @@
       <c r="H2" s="2">
         <v>2728715.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>131</v>
       </c>
@@ -4605,7 +4650,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
         <v>91827.4</v>
@@ -4619,8 +4664,29 @@
       <c r="H3" s="2">
         <v>991735.92</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>132</v>
       </c>
@@ -4631,7 +4697,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2">
         <v>30911.9</v>
@@ -4645,8 +4711,29 @@
       <c r="H4" s="2">
         <v>1063678.48</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>133</v>
       </c>
@@ -4657,7 +4744,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2">
         <v>6208.4</v>
@@ -4671,8 +4758,29 @@
       <c r="H5" s="2">
         <v>97842.52</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>134</v>
       </c>
@@ -4683,7 +4791,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2">
         <v>162999.2</v>
@@ -4697,8 +4805,29 @@
       <c r="H6" s="2">
         <v>2073349.82</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>135</v>
       </c>
@@ -4709,7 +4838,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E7" s="2">
         <v>582.46</v>
@@ -4723,8 +4852,29 @@
       <c r="H7" s="2">
         <v>384104.86</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>136</v>
       </c>
@@ -4735,7 +4885,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E8" s="2">
         <v>441.95</v>
@@ -4749,8 +4899,29 @@
       <c r="H8" s="2">
         <v>601493.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>137</v>
       </c>
@@ -4761,7 +4932,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E9" s="2">
         <v>398.99</v>
@@ -4775,8 +4946,29 @@
       <c r="H9" s="2">
         <v>1323317.49</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>138</v>
       </c>
@@ -4787,7 +4979,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2">
         <v>745.601</v>
@@ -4801,8 +4993,29 @@
       <c r="H10" s="2">
         <v>2953693.22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>139</v>
       </c>
@@ -4813,7 +5026,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2">
         <v>9614.11</v>
@@ -4827,8 +5040,29 @@
       <c r="H11" s="2">
         <v>2445546.93</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>140</v>
       </c>
@@ -4839,7 +5073,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2">
         <v>261.2</v>
@@ -4853,8 +5087,29 @@
       <c r="H12" s="2">
         <v>372023.67</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>141</v>
       </c>
@@ -4865,7 +5120,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E13" s="2">
         <v>79365.1</v>
@@ -4879,8 +5134,29 @@
       <c r="H13" s="2">
         <v>950793.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>142</v>
       </c>
@@ -4891,7 +5167,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2">
         <v>200000</v>
@@ -4905,8 +5181,29 @@
       <c r="H14" s="2">
         <v>2018000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>145</v>
       </c>
@@ -4917,7 +5214,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2">
         <v>200000</v>
@@ -4931,8 +5228,29 @@
       <c r="H15" s="2">
         <v>1992000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>146</v>
       </c>
@@ -4943,10 +5261,10 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="E16" s="2">
+        <v>286384</v>
       </c>
       <c r="F16" s="2">
         <v>10.4566</v>
@@ -4957,8 +5275,29 @@
       <c r="H16" s="2">
         <v>2994602.93</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>147</v>
       </c>
@@ -4969,7 +5308,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E17" s="2">
         <v>449014</v>
@@ -4983,8 +5322,29 @@
       <c r="H17" s="2">
         <v>7076325.94</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>148</v>
       </c>
@@ -4995,7 +5355,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E18" s="2">
         <v>35511.5</v>
@@ -5009,8 +5369,29 @@
       <c r="H18" s="2">
         <v>469817.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>149</v>
       </c>
@@ -5021,7 +5402,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E19" s="2">
         <v>1280.33</v>
@@ -5035,8 +5416,29 @@
       <c r="H19" s="2">
         <v>658394.85</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>150</v>
       </c>
@@ -5047,7 +5449,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2">
         <v>225.861</v>
@@ -5061,8 +5463,29 @@
       <c r="H20" s="2">
         <v>288760.48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>151</v>
       </c>
@@ -5073,7 +5496,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E21" s="2">
         <v>2859.477</v>
@@ -5087,8 +5510,29 @@
       <c r="H21" s="2">
         <v>953852.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>152</v>
       </c>
@@ -5099,7 +5543,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E22" s="2">
         <v>714.792</v>
@@ -5113,8 +5557,29 @@
       <c r="H22" s="2">
         <v>913852.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>153</v>
       </c>
@@ -5125,7 +5590,7 @@
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E23" s="2">
         <v>1631.321</v>
@@ -5139,8 +5604,29 @@
       <c r="H23" s="2">
         <v>876931.61</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>154</v>
       </c>
@@ -5151,7 +5637,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E24" s="2">
         <v>628.532</v>
@@ -5165,8 +5651,29 @@
       <c r="H24" s="2">
         <v>803570.36</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>155</v>
       </c>
@@ -5177,7 +5684,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E25" s="2">
         <v>100</v>
@@ -5191,8 +5698,29 @@
       <c r="H25" s="2">
         <v>5012.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>156</v>
       </c>
@@ -5203,7 +5731,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E26" s="2">
         <v>43.3092</v>
@@ -5217,8 +5745,29 @@
       <c r="H26" s="2">
         <v>133800.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>157</v>
       </c>
@@ -5229,7 +5778,7 @@
         <v>158</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E27" s="2">
         <v>150000</v>
@@ -5243,8 +5792,29 @@
       <c r="H27" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>158</v>
       </c>
@@ -5255,7 +5825,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E28" s="2">
         <v>830929.7</v>
@@ -5269,8 +5839,29 @@
       <c r="H28" s="2">
         <v>10045940.07</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>159</v>
       </c>
@@ -5281,7 +5872,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E29" s="2">
         <v>144.921</v>
@@ -5295,8 +5886,29 @@
       <c r="H29" s="2">
         <v>780079.95</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>160</v>
       </c>
@@ -5307,7 +5919,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E30" s="2">
         <v>730.658</v>
@@ -5321,8 +5933,29 @@
       <c r="H30" s="2">
         <v>291745.57</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>161</v>
       </c>
@@ -5333,7 +5966,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E31" s="2">
         <v>7602.093</v>
@@ -5347,8 +5980,29 @@
       <c r="H31" s="2">
         <v>2549991.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>162</v>
       </c>
@@ -5359,7 +6013,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E32" s="2">
         <v>65.55</v>
@@ -5373,8 +6027,29 @@
       <c r="H32" s="2">
         <v>88155.34</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>165</v>
       </c>
@@ -5385,7 +6060,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E33" s="2">
         <v>878.57</v>
@@ -5399,8 +6074,29 @@
       <c r="H33" s="2">
         <v>999031.08</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>166</v>
       </c>
@@ -5411,7 +6107,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E34" s="2">
         <v>150000</v>
@@ -5425,8 +6121,29 @@
       <c r="H34" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>167</v>
       </c>
@@ -5437,7 +6154,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E35" s="2">
         <v>360853.9</v>
@@ -5450,6 +6167,27 @@
       </c>
       <c r="H35" s="2">
         <v>4059606.38</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" s="2">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -5467,16 +6205,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5484,16 +6222,16 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5501,16 +6239,16 @@
         <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5518,16 +6256,16 @@
         <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5535,16 +6273,16 @@
         <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5552,16 +6290,16 @@
         <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5569,16 +6307,16 @@
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5586,16 +6324,16 @@
         <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5603,16 +6341,16 @@
         <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5620,16 +6358,16 @@
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5637,16 +6375,16 @@
         <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5654,16 +6392,16 @@
         <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5671,16 +6409,16 @@
         <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5688,16 +6426,16 @@
         <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5705,16 +6443,16 @@
         <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5722,16 +6460,16 @@
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5739,16 +6477,16 @@
         <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5756,16 +6494,16 @@
         <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5773,16 +6511,16 @@
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5790,10 +6528,10 @@
         <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -5807,10 +6545,10 @@
         <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -5824,10 +6562,10 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -5841,16 +6579,16 @@
         <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5858,16 +6596,16 @@
         <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5875,10 +6613,10 @@
         <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
@@ -5890,10 +6628,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
@@ -5905,10 +6643,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
@@ -5920,16 +6658,16 @@
         <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5937,16 +6675,16 @@
         <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5954,16 +6692,16 @@
         <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5971,16 +6709,16 @@
         <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5988,16 +6726,16 @@
         <v>213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6005,16 +6743,16 @@
         <v>214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6022,16 +6760,16 @@
         <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6039,16 +6777,16 @@
         <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6069,19 +6807,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6092,19 +6830,19 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6115,19 +6853,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
+++ b/legislator/property/output/normal/尤美女_2013-12-20_財產申報表_tmp84bd1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="216">
   <si>
     <t>name</t>
   </si>
@@ -527,42 +527,42 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽保險股份有限公司</t>
   </si>
   <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
+    <t>法國巴黎人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>第一金人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
+    <t>中泰人壽</t>
+  </si>
+  <si>
     <t>南山康寧終身壽險</t>
   </si>
   <si>
-    <t>N207106590</t>
-  </si>
-  <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
-    <t>安聯人壽</t>
-  </si>
-  <si>
-    <t>法國巴黎人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>第一金人壽</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
-    <t>中泰人壽</t>
-  </si>
-  <si>
     <t>南山人壽伴我一生躉繳變額壽險</t>
   </si>
   <si>
@@ -641,106 +641,34 @@
     <t>南山康福二十年期繳費終身壽險</t>
   </si>
   <si>
-    <t>VI71004582</t>
-  </si>
-  <si>
-    <t>N207080315</t>
-  </si>
-  <si>
-    <t>N207080328</t>
-  </si>
-  <si>
-    <t>N207080331</t>
-  </si>
-  <si>
-    <t>N207207114</t>
-  </si>
-  <si>
-    <t>N207080344</t>
-  </si>
-  <si>
-    <t>N207080357</t>
-  </si>
-  <si>
-    <t>N207080360</t>
-  </si>
-  <si>
-    <t>N207207127</t>
-  </si>
-  <si>
-    <t>N207080373</t>
-  </si>
-  <si>
-    <t>9901738960</t>
-  </si>
-  <si>
-    <t>PL02269737</t>
-  </si>
-  <si>
-    <t>PL07206108</t>
-  </si>
-  <si>
-    <t>ULD1195265</t>
-  </si>
-  <si>
-    <t>保單生效日：1000901NO.Ml0170734901</t>
-  </si>
-  <si>
-    <t>保單生效日：1000517NO.628181</t>
-  </si>
-  <si>
-    <t>保單生效曰：1000518NO.629006</t>
-  </si>
-  <si>
-    <t>HL60009174</t>
-  </si>
-  <si>
-    <t>HL60030108</t>
-  </si>
-  <si>
-    <t>保單生效日：1010517NO.M10170734902</t>
-  </si>
-  <si>
-    <t>保單生效日：1021211NO.982283</t>
-  </si>
-  <si>
-    <t>保單生效日：1021211NO.1538016</t>
-  </si>
-  <si>
-    <t>保單生效日：1021211NO.100262565200</t>
-  </si>
-  <si>
-    <t>保單生效日：專案代號101548AUD38915</t>
-  </si>
-  <si>
-    <t>N447560776</t>
-  </si>
-  <si>
-    <t>N447560789</t>
-  </si>
-  <si>
-    <t>N447560763</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>先驅媒體社會企業股份有限公司</t>
   </si>
   <si>
+    <t>能得科技股份有限公司</t>
+  </si>
+  <si>
     <t>臺北市仁愛路2段98號7樓</t>
   </si>
   <si>
+    <t>臺北市敦化南路1段132號5樓</t>
+  </si>
+  <si>
     <t>98年07月02日</t>
   </si>
   <si>
+    <t>95年01月01日</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>能得科技股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北市敦化南路1段132號5樓</t>
-  </si>
-  <si>
-    <t>95年01月01日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -6197,49 +6125,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>180</v>
@@ -6250,13 +6214,31 @@
       <c r="E3" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>181</v>
@@ -6265,15 +6247,33 @@
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>182</v>
@@ -6282,15 +6282,33 @@
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>183</v>
@@ -6299,15 +6317,33 @@
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>184</v>
@@ -6316,15 +6352,33 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>185</v>
@@ -6333,15 +6387,33 @@
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>182</v>
@@ -6350,15 +6422,33 @@
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>183</v>
@@ -6367,15 +6457,33 @@
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>184</v>
@@ -6384,15 +6492,33 @@
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>181</v>
@@ -6401,15 +6527,33 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>186</v>
@@ -6418,15 +6562,33 @@
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>187</v>
@@ -6435,15 +6597,33 @@
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>188</v>
@@ -6452,15 +6632,33 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>189</v>
@@ -6469,15 +6667,33 @@
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>190</v>
@@ -6486,15 +6702,33 @@
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>191</v>
@@ -6503,15 +6737,33 @@
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>192</v>
@@ -6520,15 +6772,33 @@
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>193</v>
@@ -6536,16 +6806,34 @@
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="2">
-        <v>65485917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>194</v>
@@ -6553,16 +6841,34 @@
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="2">
-        <v>99105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>195</v>
@@ -6570,16 +6876,34 @@
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="2">
-        <v>97111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>196</v>
@@ -6588,15 +6912,33 @@
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>197</v>
@@ -6605,15 +6947,33 @@
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>182</v>
@@ -6621,14 +6981,34 @@
       <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>183</v>
@@ -6636,14 +7016,34 @@
       <c r="D26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>198</v>
@@ -6651,14 +7051,34 @@
       <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>199</v>
@@ -6667,15 +7087,33 @@
         <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>200</v>
@@ -6684,15 +7122,33 @@
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>201</v>
@@ -6701,15 +7157,33 @@
         <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>202</v>
@@ -6718,15 +7192,33 @@
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>203</v>
@@ -6735,15 +7227,33 @@
         <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>204</v>
@@ -6752,15 +7262,33 @@
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>205</v>
@@ -6769,24 +7297,60 @@
         <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>232</v>
+        <v>206</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="2">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6796,33 +7360,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="1">
-        <v>500000</v>
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>229</v>
       </c>
@@ -6830,22 +7415,43 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>214</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>230</v>
       </c>
@@ -6853,19 +7459,40 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="2">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
